--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2026-2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="グラフ用" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2758,4 +2760,112 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>カード名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>レアリティ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>状態</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>在庫</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>カード名を入力:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>開始日（例: 2026-02-19）:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>終了日（例: 2026-02-28）:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>↓ここに抽出データが表示されます</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>価格</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -2828,7 +2828,6 @@
           <t>カード名を入力:</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2836,7 +2835,6 @@
           <t>開始日（例: 2026-02-19）:</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2844,7 +2842,6 @@
           <t>終了日（例: 2026-02-28）:</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2026-2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="グラフ用" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="graph" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2800,6 +2801,26 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2026-02-19_price</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>2026-02-19_buy</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>2026-02-19_ratio</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>2026-02-19_diff</t>
         </is>
       </c>
     </row>
@@ -2865,4 +2886,64 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>card_name:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>start_date:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>end_date:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>buy_price</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -2908,7 +2908,6 @@
           <t>card_name:</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2916,7 +2915,6 @@
           <t>start_date:</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2924,7 +2922,6 @@
           <t>end_date:</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -2769,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2822,6 +2822,224 @@
         <is>
           <t>2026-02-19_diff</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>《No.779》1パック2000円オリパ(※ラストワン有)【No.779】{￥2000}</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>カットロトム【C】{004/098}</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>80</v>
+      </c>
+      <c r="J4" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>カスミのギャラドス【R】{026/063}</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>180</v>
+      </c>
+      <c r="J5" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>デスカーン【R】{052/106}</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>シロナのミカルゲ【U】{050/063}</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ヒートバーナー【U】{074/080}</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>80</v>
+      </c>
+      <c r="J8" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>チェレン【U】{084/086}</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>80</v>
+      </c>
+      <c r="J9" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>マリィのオーロンゲexデッキ【ver1.3】{-}</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>15400</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>〔状態C〕ポケモンキャッチャー【P】{093/SM-P}
+その他]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>380</v>
+      </c>
+      <c r="J11" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>〔状態A-〕フライゴンEX【P】{114/XY-P}
+XY]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1880</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1504</v>
       </c>
     </row>
   </sheetData>

--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -2830,8 +2830,6 @@
           <t>《No.779》1パック2000円オリパ(※ラストワン有)【No.779】{￥2000}</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -2845,9 +2843,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -2866,8 +2861,6 @@
           <t>カットロトム【C】{004/098}</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -2886,8 +2879,6 @@
           <t>カスミのギャラドス【R】{026/063}</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -2906,8 +2897,6 @@
           <t>デスカーン【R】{052/106}</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -2926,8 +2915,6 @@
           <t>シロナのミカルゲ【U】{050/063}</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -2946,8 +2933,6 @@
           <t>ヒートバーナー【U】{074/080}</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -2966,8 +2951,6 @@
           <t>チェレン【U】{084/086}</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -2986,8 +2969,6 @@
           <t>マリィのオーロンゲexデッキ【ver1.3】{-}</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3007,8 +2988,6 @@
 その他]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3028,8 +3007,6 @@
 XY]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>zaiko_ari</t>

--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -2769,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3017,6 +3017,5922 @@
       </c>
       <c r="J12" t="n">
         <v>1504</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ポンチョを着たピカチュウ</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>398000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>318400</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>〔状態B〕キマワリ
+SV6]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>320</v>
+      </c>
+      <c r="J14" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>〔状態B〕ミミッキュVMAX
+S8b]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RRR</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>230</v>
+      </c>
+      <c r="J15" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>〔状態C〕ディアルガ
+その他]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>34800</v>
+      </c>
+      <c r="J16" t="n">
+        <v>27840</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ウネルミナモex
+SV5K]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3980</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>〔状態A-〕キラフロルex
+SV4a]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>580</v>
+      </c>
+      <c r="J18" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>〔状態B〕イッカネズミex
+SV4M]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>490</v>
+      </c>
+      <c r="J19" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ガラガラ
+XY]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>2080</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>〔状態A-〕パモ
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1090</v>
+      </c>
+      <c r="J21" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ミミッキュVMAX
+S8b]</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RRR</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>490</v>
+      </c>
+      <c r="J22" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ピカチュウ(R仕様)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>2780</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ペパー
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>330</v>
+      </c>
+      <c r="J24" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>〔状態A-〕レックウザVMAX
+S8b]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RRR</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>390</v>
+      </c>
+      <c r="J25" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ガオガエン
+その他]</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>580</v>
+      </c>
+      <c r="J26" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カラマネロ
+S8b]</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>330</v>
+      </c>
+      <c r="J27" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ライチュウ＆アローラライチュウGX
+sm10a]</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>3190</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>〔状態B〕野盗三姉妹
+S10a]</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>380</v>
+      </c>
+      <c r="J29" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>〔状態A-〕プテラGX
+sm11]</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1680</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カイリキーGX
+sm2]</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>3680</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>〔状態A-〕戒めの祠
+sm10]</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>480</v>
+      </c>
+      <c r="J32" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ラランテスGX
+sm1]</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>930</v>
+      </c>
+      <c r="J33" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>〔状態A-〕こだわりメット
+sm8]</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>480</v>
+      </c>
+      <c r="J34" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>〔状態A-〕リザードン＆テールナーGX
+sm11a]</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>9900</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>〔状態A-〕レシラムEX(SR仕様)
+その他]</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>59800</v>
+      </c>
+      <c r="J36" t="n">
+        <v>47840</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ピカチュウ＆ゼクロムGX(SA)
+sm9]</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>248000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>198400</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>〔状態A-〕マホイップV
+s3a]</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>730</v>
+      </c>
+      <c r="J38" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>〔状態B〕ゴツゴツメット
+その他]</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>3790</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>〔状態B〕MレックウザEX(25th)
+S8a-P]</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>〔状態A-〕グレイシアVMAX(SA)
+S6a]</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>89800</v>
+      </c>
+      <c r="J41" t="n">
+        <v>71840</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>〔状態B〕学習装置
+S5I]</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2380</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>〔状態B〕アローラゴローニャGX
+sm4]</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>〔状態B〕ピカチュウ
+その他]</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>218000</v>
+      </c>
+      <c r="J44" t="n">
+        <v>174400</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>〔状態B〕キョウの罠
+SM9a]</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>480</v>
+      </c>
+      <c r="J45" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>〔状態C〕ピカチュウ(ポケモンパン)
+XY]</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2980</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>〔状態C〕ジラーチEX
+その他]</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>9980</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>〔状態B〕フォクスライ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>580</v>
+      </c>
+      <c r="J48" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>〔状態B〕ルギアGX
+sm8]</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>17800</v>
+      </c>
+      <c r="J49" t="n">
+        <v>14240</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>〔状態B〕デンジャラスドリル
+sm8]</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>490</v>
+      </c>
+      <c r="J50" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>〔状態B〕アクロマ
+その他]</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>8990</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>〔状態B〕ルカリオGX
+sm5]</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>11800</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>〔状態B〕ゲーチス
+その他]</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>13800</v>
+      </c>
+      <c r="J53" t="n">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>〔状態A-〕Nのゾロアークex
+M2a]</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>8680</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6944</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>〔状態B〕ロケット団のダグトリオ
+M2a]</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>380</v>
+      </c>
+      <c r="J55" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>〔状態B〕アマルルガ
+M3]</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>280</v>
+      </c>
+      <c r="J56" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>マスカーニャex</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>680</v>
+      </c>
+      <c r="J57" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕フシギバナ(25th)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>21800</v>
+      </c>
+      <c r="J58" t="n">
+        <v>17440</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ブースターex</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>7980</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ブースターV</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>320</v>
+      </c>
+      <c r="J60" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>〔状態B〕ユキカブリ
+M1S]</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>280</v>
+      </c>
+      <c r="J61" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>グレイシアGX</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>13800</v>
+      </c>
+      <c r="J62" t="n">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>コダック</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>680</v>
+      </c>
+      <c r="J63" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>〔状態B〕ハカドッグ
+M1S]</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>280</v>
+      </c>
+      <c r="J64" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ロケット団のミュウツーex</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>6980</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>シンボラーGX</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>980</v>
+      </c>
+      <c r="J66" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>メガサーナイトex</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1280</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>イイネイヌ</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>580</v>
+      </c>
+      <c r="J68" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕マグマ団のグラードンEX</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>328000</v>
+      </c>
+      <c r="J69" t="n">
+        <v>262400</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>チャーレムV(SA)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ブラッキーex</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>82800</v>
+      </c>
+      <c r="J71" t="n">
+        <v>66240</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>リキキリンex</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>480</v>
+      </c>
+      <c r="J72" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ドラピオンV</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>880</v>
+      </c>
+      <c r="J73" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ギギアル</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>480</v>
+      </c>
+      <c r="J74" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>メタグロスVMAX</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1080</v>
+      </c>
+      <c r="J75" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕イーブイ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>8980</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>チラーミィ</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>780</v>
+      </c>
+      <c r="J77" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ヒートバーナー</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>280</v>
+      </c>
+      <c r="J78" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ダイブボール</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>15800</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12640</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>レスキュータンカ</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J80" t="n">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>基本闘エネルギー(SVデザイン)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>基本炎エネルギー(ファーストデザインキラ)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>158000</v>
+      </c>
+      <c r="J82" t="n">
+        <v>126400</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>基本炎エネルギー</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>27800</v>
+      </c>
+      <c r="J83" t="n">
+        <v>22240</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕ゼイユ</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>79800</v>
+      </c>
+      <c r="J84" t="n">
+        <v>63840</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>モノマネむすめ</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>880</v>
+      </c>
+      <c r="J85" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ソニア</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>29800</v>
+      </c>
+      <c r="J86" t="n">
+        <v>23840</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>〔状態C〕ゼブライカ
+その他]</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>220</v>
+      </c>
+      <c r="J87" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>〔状態C〕ユキワラシ
+M2a]</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>220</v>
+      </c>
+      <c r="J88" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>〔状態C〕キチキギスex
+M2a]</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1480</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>〔状態C〕ニャース
+XY]</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>780</v>
+      </c>
+      <c r="J90" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ボルケニオン
+XY]</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>680</v>
+      </c>
+      <c r="J91" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>〔状態C〕ゲンガーソウルリンク(キラ仕様/Ｖジャンプ)
+XY]</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>3480</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ボーマンダEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1230</v>
+      </c>
+      <c r="J93" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ラティオス
+XY]</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>〔状態C〕ガチグマアカツキex
+SV5a]</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>220</v>
+      </c>
+      <c r="J95" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>〔状態A-〕チョロネコ
+その他]</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2480</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>〔状態B〕ケンホロウ
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>420</v>
+      </c>
+      <c r="J97" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>〔状態B〕ハーデリア
+SV11W]</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>320</v>
+      </c>
+      <c r="J98" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>〔状態C〕Nのゾロアークex
+SV9]</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>880</v>
+      </c>
+      <c r="J99" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本悪エネルギー(BWデザイン/ミラー)
+その他]</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1330</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>〔状態B〕アオキの手際
+SV8a]</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>880</v>
+      </c>
+      <c r="J101" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>〔状態B〕エアームド
+SV7a]</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>320</v>
+      </c>
+      <c r="J102" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ポケパークのゴンベ(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>3980</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>〔状態A-〕パルキアLV.X
+その他]</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>6980</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>〔状態C〕バシャーモVMAX
+S5a]</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1080</v>
+      </c>
+      <c r="J105" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>〔状態C〕ジムバッジ(タケシ キラ仕様)
+XY]</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>5480</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>〔状態C〕ヒトカゲδ-デルタ種
+その他]</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1080</v>
+      </c>
+      <c r="J107" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ポケパークのピカチュウ
+その他]</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>148000</v>
+      </c>
+      <c r="J108" t="n">
+        <v>118400</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>〔状態C〕キラフロルex
+SV4a]</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>280</v>
+      </c>
+      <c r="J109" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>〔状態C〕アオキ
+SV3a]</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>280</v>
+      </c>
+      <c r="J110" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>〔状態C〕ラティオス
+XY]</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>3980</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>〔状態C〕レジドラゴVSTAR
+S12]</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>320</v>
+      </c>
+      <c r="J112" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>〔状態C〕フーディンex
+SV2a]</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>2480</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>〔状態C〕ヒスイダイケンキVSTAR
+S9a]</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>280</v>
+      </c>
+      <c r="J114" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>〔状態C〕おじょうさま
+S11]</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>530</v>
+      </c>
+      <c r="J115" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>〔状態C〕ルギア(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1780</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>〔状態B〕リキキリン
+SV2D]</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>280</v>
+      </c>
+      <c r="J117" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ヒスイダイケンキVSTAR
+S12a]</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>990</v>
+      </c>
+      <c r="J118" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>〔状態B〕ルギアV
+S12]</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>490</v>
+      </c>
+      <c r="J119" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>〔状態B〕カイオーガex(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>64800</v>
+      </c>
+      <c r="J120" t="n">
+        <v>51840</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>〔状態A-〕チャンピオンズフェスティバル(2016/未開封)
+XY]</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>368000</v>
+      </c>
+      <c r="J121" t="n">
+        <v>294400</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>〔状態A-〕フーパEX
+CP2]</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1530</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>〔状態A-〕デンジュモク
+その他]</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>330</v>
+      </c>
+      <c r="J123" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ギャラドスEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>103000</v>
+      </c>
+      <c r="J124" t="n">
+        <v>82400</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>〔状態C〕ブラッキー☆(25th)
+S8a-P]</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>9480</v>
+      </c>
+      <c r="J125" t="n">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ディアルガGX
+sm5]</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>990</v>
+      </c>
+      <c r="J126" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ダブル無色エネルギー
+sm1]</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>26800</v>
+      </c>
+      <c r="J127" t="n">
+        <v>21440</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>〔状態A-〕チコリータ(マクドナルド)
+その他]</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>47800</v>
+      </c>
+      <c r="J128" t="n">
+        <v>38240</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>〔状態B〕ドータクンBREAK
+XY]</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>320</v>
+      </c>
+      <c r="J129" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>〔状態A-〕MギャラドスEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>70800</v>
+      </c>
+      <c r="J130" t="n">
+        <v>56640</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>〔状態A-〕化石研究員
+XY]</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>5490</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ピカチュウ(バトルフェスタ2015)
+XY]</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>328000</v>
+      </c>
+      <c r="J132" t="n">
+        <v>262400</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>〔状態C〕いちげきウーラオスV(SA)
+S5I]</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>〔状態A-〕釣り人
+sm8b]</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>480</v>
+      </c>
+      <c r="J134" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ルギア
+XY]</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>16300</v>
+      </c>
+      <c r="J135" t="n">
+        <v>13040</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ガブリアスV
+S9a]</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CSR</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>5780</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>〔状態A-〕オダマキ博士の観察
+XY]</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>6490</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>〔状態A-〕トゲピー＆ピィ＆ププリンGX
+sm12a]</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>6980</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>〔状態B〕リーフィアVMAX
+S6a]</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2480</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>〔状態B〕スクールボーイ
+S7R]</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>280</v>
+      </c>
+      <c r="J140" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本闘エネルギー
+S5a]</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2580</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>〔状態B〕ニンフィア
+XY]</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>12800</v>
+      </c>
+      <c r="J142" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>〔状態B〕ピカチュウ(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>15800</v>
+      </c>
+      <c r="J143" t="n">
+        <v>12640</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>〔状態B〕リザードンEX(未開封)
+XY]</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>15800</v>
+      </c>
+      <c r="J144" t="n">
+        <v>12640</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本草エネルギー(バトルカーニバル)
+その他]</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>980</v>
+      </c>
+      <c r="J145" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>〔状態C〕ポケモンセンター トウキョー
+その他]</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>19800</v>
+      </c>
+      <c r="J146" t="n">
+        <v>15840</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>〔状態C〕カイリューGX
+sm6]</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>680</v>
+      </c>
+      <c r="J147" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>〔状態B〕マルチつけかえ
+sm2]</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>〔状態B〕ポンチョを着たイーブイ(SW)
+その他]</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>79800</v>
+      </c>
+      <c r="J149" t="n">
+        <v>63840</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>〔状態C〕デンリュウGX
+sm8]</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>530</v>
+      </c>
+      <c r="J150" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>〔状態C〕基本超エネルギー(バトルカーニバル)
+その他]</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>980</v>
+      </c>
+      <c r="J151" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>〔状態C〕バクガメスGX
+sm2]</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>780</v>
+      </c>
+      <c r="J152" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>〔状態C〕カイリキーGX
+sm2]</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1780</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>〔状態C〕基本炎エネルギー
+sm12a]</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>320</v>
+      </c>
+      <c r="J154" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>〔状態C〕イーブイ
+その他]</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>980</v>
+      </c>
+      <c r="J155" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>〔状態C〕オーロット＆ヨノワールGX(SA)
+sm12a]</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>〔状態C〕溶接工
+sm12a]</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>480</v>
+      </c>
+      <c r="J157" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>〔状態C〕ダークライGX
+sm8b]</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>〔状態C〕ソニア
+s1a]</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>12800</v>
+      </c>
+      <c r="J159" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>〔状態C〕袴姿のピカチュウ
+その他]</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>69800</v>
+      </c>
+      <c r="J160" t="n">
+        <v>55840</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>〔状態C〕ミュウツーGX(SR仕様)
+その他]</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>79800</v>
+      </c>
+      <c r="J161" t="n">
+        <v>63840</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>〔状態C〕マスターのカギ
+その他]</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>872000</v>
+      </c>
+      <c r="J162" t="n">
+        <v>697600</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>〔状態B〕ガラルヒヒダルマVMAX
+s4]</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>480</v>
+      </c>
+      <c r="J163" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>〔状態B〕アーゴヨン＆アクジキングGX
+sm12]</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1680</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>〔状態B〕アブソル
+XY]</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2580</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>〔状態B〕ともだちてちょう
+S-P]</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>59800</v>
+      </c>
+      <c r="J166" t="n">
+        <v>47840</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>〔状態C〕基本悪エネルギー(ファーストデザインキラ)
+その他]</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>69800</v>
+      </c>
+      <c r="J167" t="n">
+        <v>55840</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>〔状態B〕ゲッコウガBREAK
+XY]</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>880</v>
+      </c>
+      <c r="J168" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本水エネルギー
+sm12a]</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>280</v>
+      </c>
+      <c r="J169" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>〔状態B〕トゲキッス
+M2a]</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>320</v>
+      </c>
+      <c r="J170" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>〔状態A-〕モクロー
+M3]</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>390</v>
+      </c>
+      <c r="J171" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕カミツレのきらめき</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>13800</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕フェローチェ＆マッシブーンGX</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>7980</v>
+      </c>
+      <c r="J173" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>リーフィア(中国語版)</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>8980</v>
+      </c>
+      <c r="J174" t="n">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>〔CGC10黒鑑定済〕フシギバナex</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>7980</v>
+      </c>
+      <c r="J175" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>〔状態B〕チャデス
+SV5a]</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>320</v>
+      </c>
+      <c r="J176" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ワナイダーex</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>4480</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>リーフィアGX</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>24800</v>
+      </c>
+      <c r="J178" t="n">
+        <v>19840</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA9鑑定済〕メガリザードンXex</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>62800</v>
+      </c>
+      <c r="J179" t="n">
+        <v>50240</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕ビクティニ(BWR仕様)</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>72800</v>
+      </c>
+      <c r="J180" t="n">
+        <v>58240</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕レシラム＆リザードンGX</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>22800</v>
+      </c>
+      <c r="J181" t="n">
+        <v>18240</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕イーユイex</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>4980</v>
+      </c>
+      <c r="J182" t="n">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕バクフーン</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>4980</v>
+      </c>
+      <c r="J183" t="n">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ゲッコウガ＆ゾロアークGX</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>29800</v>
+      </c>
+      <c r="J184" t="n">
+        <v>23840</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕シャワーズex</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>13800</v>
+      </c>
+      <c r="J185" t="n">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕カメール</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1780</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>〔BGS10鑑定済〕ポッチャマ</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>54800</v>
+      </c>
+      <c r="J187" t="n">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕カイオーガex</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J188" t="n">
+        <v>35840</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>アローラロコン</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>980</v>
+      </c>
+      <c r="J189" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕ピカチュウV(RR仕様)</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>2980</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>〔PSA8鑑定済〕ピカチュウ</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕桜アフロのピカチュウ</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>148000</v>
+      </c>
+      <c r="J192" t="n">
+        <v>118400</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕ピカチュウVMAX(RRR仕様)</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>57800</v>
+      </c>
+      <c r="J193" t="n">
+        <v>46240</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ピカチュウ</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>19800</v>
+      </c>
+      <c r="J194" t="n">
+        <v>15840</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ピカチュウ(中国語版)</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>14800</v>
+      </c>
+      <c r="J195" t="n">
+        <v>11840</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕コイキングごっこピカチュウ</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1424000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>〔PSA8鑑定済〕ピカチュウ(おかいもの名古屋)</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>7980</v>
+      </c>
+      <c r="J197" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ピカチュウ(ともだちのわ)</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>578000</v>
+      </c>
+      <c r="J198" t="n">
+        <v>462400</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>マイナン(未開封)</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>8980</v>
+      </c>
+      <c r="J199" t="n">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>名探偵ピカチュウ</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>39800</v>
+      </c>
+      <c r="J200" t="n">
+        <v>31840</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ボスごっこピカチュウ アクア団</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>158000</v>
+      </c>
+      <c r="J201" t="n">
+        <v>126400</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ミュウex</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>3980</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕ミュウex</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>4980</v>
+      </c>
+      <c r="J203" t="n">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕リーリエのピッピex</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>25800</v>
+      </c>
+      <c r="J204" t="n">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ナカヌチャン</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>2980</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ミュウツーEX</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>248000</v>
+      </c>
+      <c r="J206" t="n">
+        <v>198400</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕エーフィV</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>5980</v>
+      </c>
+      <c r="J207" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>サーナイトV</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1280</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>オドリドリGX</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>880</v>
+      </c>
+      <c r="J209" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>バリヤードGX</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>5480</v>
+      </c>
+      <c r="J210" t="n">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ルカリオLV.X</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>17800</v>
+      </c>
+      <c r="J211" t="n">
+        <v>14240</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ナゲツケサル</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>2980</v>
+      </c>
+      <c r="J212" t="n">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕ドンファン(25th)</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>980</v>
+      </c>
+      <c r="J213" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ルガルガンGX</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1380</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ゲッコウガ☆(未開封/英語版)</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>7980</v>
+      </c>
+      <c r="J215" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>〔PSA8鑑定済〕ダークライEX</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>6980</v>
+      </c>
+      <c r="J216" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕スナノケガワex</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>5980</v>
+      </c>
+      <c r="J217" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕ブラッキーGX</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>37800</v>
+      </c>
+      <c r="J218" t="n">
+        <v>30240</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕アリアドス</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1480</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ポケパークのジラーチ</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>3980</v>
+      </c>
+      <c r="J220" t="n">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ザマゼンタV</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>4980</v>
+      </c>
+      <c r="J221" t="n">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ドータクンBREAK</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>580</v>
+      </c>
+      <c r="J222" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕ゼルネアスEX</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>8980</v>
+      </c>
+      <c r="J223" t="n">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕レックウザGX</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>34800</v>
+      </c>
+      <c r="J224" t="n">
+        <v>27840</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕ギラティナVSTAR</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>35800</v>
+      </c>
+      <c r="J225" t="n">
+        <v>28640</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕パルキアGX</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>5480</v>
+      </c>
+      <c r="J226" t="n">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>チルタリス</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>59800</v>
+      </c>
+      <c r="J227" t="n">
+        <v>47840</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>カイリューGX</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>3780</v>
+      </c>
+      <c r="J228" t="n">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕ロケット団のニャース</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>7980</v>
+      </c>
+      <c r="J229" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>〔PSA8鑑定済〕シェイミEX</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>4980</v>
+      </c>
+      <c r="J230" t="n">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>〔ARS10鑑定済〕イーブイ(YU NAGABA)</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>4980</v>
+      </c>
+      <c r="J231" t="n">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕レックウザEX</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J232" t="n">
+        <v>35840</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕トルネロスV(SA)</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>6980</v>
+      </c>
+      <c r="J233" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ルギアV(RR仕様)</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>11800</v>
+      </c>
+      <c r="J234" t="n">
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕ヒビキの冒険</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>16800</v>
+      </c>
+      <c r="J235" t="n">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ジムバッジ(カツラ キラ仕様)</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>6980</v>
+      </c>
+      <c r="J236" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ジムバッジ(センリ)</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>3980</v>
+      </c>
+      <c r="J237" t="n">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本雷エネルギー(クリーチャーズ25周年記念)
+その他]</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>79800</v>
+      </c>
+      <c r="J238" t="n">
+        <v>63840</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>基本超エネルギー(SVデザイン)</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1680</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕ヒカリ</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>16800</v>
+      </c>
+      <c r="J240" t="n">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>〔ARS10+鑑定済〕エリカのおもてなし</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>47800</v>
+      </c>
+      <c r="J241" t="n">
+        <v>38240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕ナタネの活気</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>8980</v>
+      </c>
+      <c r="J242" t="n">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕タケシのガッツ</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>34800</v>
+      </c>
+      <c r="J243" t="n">
+        <v>27840</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>〔ARS10+鑑定済〕ラニュイ</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>15800</v>
+      </c>
+      <c r="J244" t="n">
+        <v>12640</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>〔PSA8鑑定済〕キャンプファイヤー</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1280</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕グラジオ</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>3480</v>
+      </c>
+      <c r="J246" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>〔PSA8鑑定済〕ルザミーネ</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>82800</v>
+      </c>
+      <c r="J247" t="n">
+        <v>66240</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕モノマネむすめ</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>4480</v>
+      </c>
+      <c r="J248" t="n">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕マオ＆スイレン</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>7980</v>
+      </c>
+      <c r="J249" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕フウロ(SR仕様)</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>108000</v>
+      </c>
+      <c r="J250" t="n">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕リーリエ(SR仕様)</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>12800000</v>
+      </c>
+      <c r="J251" t="n">
+        <v>10240000</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>〔PSA9鑑定済〕アクロマ</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>17800</v>
+      </c>
+      <c r="J252" t="n">
+        <v>14240</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ツツジ</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>8980</v>
+      </c>
+      <c r="J253" t="n">
+        <v>7184</v>
       </c>
     </row>
   </sheetData>

--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -2769,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L253"/>
+  <dimension ref="A1:P413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2823,6 +2823,26 @@
           <t>2026-02-19_diff</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>2026-02-24_price</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>2026-02-24_buy</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>2026-02-24_ratio</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>2026-02-24_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3030,7 +3050,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3055,7 +3074,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3080,7 +3098,6 @@
           <t>RRR</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3105,7 +3122,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3130,7 +3146,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3155,7 +3170,6 @@
           <t>SSR</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3180,7 +3194,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3205,7 +3218,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3230,7 +3242,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3255,7 +3266,6 @@
           <t>RRR</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3280,7 +3290,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3305,7 +3314,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3330,7 +3338,6 @@
           <t>RRR</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3355,7 +3362,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3380,7 +3386,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3405,7 +3410,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3430,7 +3434,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3455,7 +3458,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3480,7 +3482,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3505,7 +3506,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3530,7 +3530,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3555,7 +3554,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3580,7 +3578,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3605,7 +3602,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3630,7 +3626,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3655,7 +3650,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3680,7 +3674,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3705,7 +3698,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3730,7 +3722,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3755,7 +3746,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3780,7 +3770,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3805,7 +3794,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -3830,7 +3818,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3855,7 +3842,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3880,7 +3866,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3905,7 +3890,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3930,7 +3914,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3955,7 +3938,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -3980,7 +3962,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4005,7 +3986,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4030,7 +4010,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4055,7 +4034,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4080,7 +4058,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4105,7 +4082,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4129,7 +4105,6 @@
           <t>SSR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4153,7 +4128,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4177,7 +4151,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4201,7 +4174,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4226,7 +4198,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4250,7 +4221,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4274,7 +4244,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4299,7 +4268,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4323,7 +4291,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4347,7 +4314,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4371,7 +4337,6 @@
           <t>MA</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4395,7 +4360,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4419,7 +4383,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4443,7 +4406,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4467,7 +4429,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4491,7 +4452,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4515,7 +4475,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4539,7 +4498,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4563,7 +4521,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4587,7 +4544,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4611,7 +4567,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4635,7 +4590,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4659,7 +4613,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4683,7 +4636,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4707,7 +4659,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4731,7 +4682,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4755,7 +4705,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -4779,7 +4728,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4803,7 +4751,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4827,7 +4774,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -4852,7 +4798,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -4877,7 +4822,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -4902,7 +4846,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -4927,7 +4870,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -4952,7 +4894,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -4977,7 +4918,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5002,7 +4942,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5027,7 +4966,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5052,7 +4990,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5077,7 +5014,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5102,7 +5038,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5127,7 +5062,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5152,7 +5086,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5177,7 +5110,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5202,7 +5134,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5227,7 +5158,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5252,7 +5182,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5277,7 +5206,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5302,7 +5230,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5327,7 +5254,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5352,7 +5278,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5377,7 +5302,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5402,7 +5326,6 @@
           <t>SSR</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5427,7 +5350,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5452,7 +5374,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5477,7 +5398,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5502,7 +5422,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5527,7 +5446,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5552,7 +5470,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5577,7 +5494,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5602,7 +5518,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5627,7 +5542,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5652,7 +5566,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5677,7 +5590,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5702,7 +5614,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5727,7 +5638,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5752,7 +5662,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5777,7 +5686,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5802,7 +5710,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5827,7 +5734,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5852,7 +5758,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5877,7 +5782,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5902,7 +5806,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5927,7 +5830,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5952,7 +5854,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -5977,7 +5878,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6002,7 +5902,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6027,7 +5926,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6052,7 +5950,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6077,7 +5974,6 @@
           <t>CSR</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6102,7 +5998,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6127,7 +6022,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6152,7 +6046,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6177,7 +6070,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6202,7 +6094,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6227,7 +6118,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6252,7 +6142,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6277,7 +6166,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6302,7 +6190,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6327,7 +6214,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6352,7 +6238,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6377,7 +6262,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6402,7 +6286,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6427,7 +6310,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6452,7 +6334,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6477,7 +6358,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6502,7 +6382,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6527,7 +6406,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6552,7 +6430,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6577,7 +6454,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6602,7 +6478,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6627,7 +6502,6 @@
           <t>SSR</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6652,7 +6526,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6677,7 +6550,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6702,7 +6574,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6727,7 +6598,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6752,7 +6622,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6777,7 +6646,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6802,7 +6670,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6827,7 +6694,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6852,7 +6718,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6877,7 +6742,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6902,7 +6766,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6927,7 +6790,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6952,7 +6814,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -6976,7 +6837,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7000,7 +6860,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7024,7 +6883,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7048,7 +6906,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7073,7 +6930,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7097,7 +6953,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7121,7 +6976,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7145,7 +6999,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7169,7 +7022,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7193,7 +7045,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7217,7 +7068,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7241,7 +7091,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7265,7 +7114,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7289,7 +7137,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7313,7 +7160,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7337,7 +7183,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7361,7 +7206,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7385,7 +7229,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7409,7 +7252,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7433,7 +7275,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7457,7 +7298,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7481,7 +7321,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7505,7 +7344,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7529,7 +7367,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7553,7 +7390,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7577,7 +7413,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7601,7 +7436,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7625,7 +7459,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7649,7 +7482,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7673,7 +7505,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7697,7 +7528,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7721,7 +7551,6 @@
           <t>SSR</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7745,7 +7574,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7769,7 +7597,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7793,7 +7620,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7817,7 +7643,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7841,7 +7666,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7865,7 +7689,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7889,7 +7712,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7913,7 +7735,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7937,7 +7758,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7961,7 +7781,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -7985,7 +7804,6 @@
           <t>SSR</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8009,7 +7827,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8033,7 +7850,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8057,7 +7873,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8081,7 +7896,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8105,7 +7919,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8129,7 +7942,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8153,7 +7965,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8177,7 +7988,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8201,7 +8011,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8225,7 +8034,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8249,7 +8057,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8273,7 +8080,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8297,7 +8103,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8321,7 +8126,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8345,7 +8149,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8369,7 +8172,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8393,7 +8195,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8417,7 +8218,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8441,7 +8241,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8465,7 +8264,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8489,7 +8287,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8513,7 +8310,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8537,7 +8333,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8562,7 +8357,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8586,7 +8380,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8610,7 +8403,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8634,7 +8426,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8658,7 +8449,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8682,7 +8472,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8706,7 +8495,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8730,7 +8518,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8754,7 +8541,6 @@
           <t>TR</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8778,7 +8564,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8802,7 +8587,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8826,7 +8610,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8850,7 +8633,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8874,7 +8656,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8898,7 +8679,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8922,7 +8702,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -8933,6 +8712,3978 @@
       </c>
       <c r="J253" t="n">
         <v>7184</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ルチャブル
+XY]</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>580</v>
+      </c>
+      <c r="N254" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本超エネルギー(チャンピオンズリーグ2026)
+M-P]</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>880</v>
+      </c>
+      <c r="N255" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ムウマージex
+M2]</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>380</v>
+      </c>
+      <c r="N256" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>〔状態C〕チラーミィ
+SV5K]</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>280</v>
+      </c>
+      <c r="N257" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ゲノセクトex
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>580</v>
+      </c>
+      <c r="N258" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>〔状態A-〕バニリッチ
+SV11W]</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>530</v>
+      </c>
+      <c r="N259" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>〔状態A-〕シビシラス
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>1190</v>
+      </c>
+      <c r="N260" t="n">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>〔状態B〕ダゲキ
+SV11W]</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>320</v>
+      </c>
+      <c r="N261" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ランドロス
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>530</v>
+      </c>
+      <c r="N262" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>〔状態C〕サーナイト
+その他]</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M263" t="n">
+        <v>1280</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ロケット団のファイヤーex
+SV10]</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M264" t="n">
+        <v>790</v>
+      </c>
+      <c r="N264" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヤンヤンマ
+SV9a]</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
+        <v>420</v>
+      </c>
+      <c r="N265" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メロコ
+SV8a]</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M266" t="n">
+        <v>380</v>
+      </c>
+      <c r="N266" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>〔状態A-〕タケルライコex
+SV8a]</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M267" t="n">
+        <v>1090</v>
+      </c>
+      <c r="N267" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>〔状態B〕ピカチュウex
+SV8a]</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M268" t="n">
+        <v>5980</v>
+      </c>
+      <c r="N268" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>〔状態C〕ポケパークのラティオス
+その他]</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M269" t="n">
+        <v>1280</v>
+      </c>
+      <c r="N269" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>〔状態B〕ウミトリオex
+SV5K]</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M270" t="n">
+        <v>280</v>
+      </c>
+      <c r="N270" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>〔状態B〕ランクルス
+SV5K]</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M271" t="n">
+        <v>320</v>
+      </c>
+      <c r="N271" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ナミイルカ
+SV4a]</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M272" t="n">
+        <v>350</v>
+      </c>
+      <c r="N272" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>〔状態B〕ストリンダーex
+SV4M]</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M273" t="n">
+        <v>280</v>
+      </c>
+      <c r="N273" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本超エネルギー(ジムチャレンジ)
+その他]</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M274" t="n">
+        <v>780</v>
+      </c>
+      <c r="N274" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>〔状態B〕ガラルニャイキングV
+S11]</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M275" t="n">
+        <v>280</v>
+      </c>
+      <c r="N275" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>〔状態A-〕サーナイトex
+SV1S]</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M276" t="n">
+        <v>580</v>
+      </c>
+      <c r="N276" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>〔状態B〕スター団のしたっぱ
+SV1S]</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M277" t="n">
+        <v>320</v>
+      </c>
+      <c r="N277" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>〔状態B〕コライドンex
+SV1S]</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M278" t="n">
+        <v>4980</v>
+      </c>
+      <c r="N278" t="n">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>〔状態B〕グレイシアVSTAR
+S12a]</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M279" t="n">
+        <v>2780</v>
+      </c>
+      <c r="N279" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>〔状態B〕カイ
+S12a]</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M280" t="n">
+        <v>2980</v>
+      </c>
+      <c r="N280" t="n">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ライコウV
+S12a]</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M281" t="n">
+        <v>3780</v>
+      </c>
+      <c r="N281" t="n">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>〔状態A-〕アクジキング
+sm8b]</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M282" t="n">
+        <v>480</v>
+      </c>
+      <c r="N282" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>〔状態B〕ルギアV(RR仕様)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M283" t="n">
+        <v>1290</v>
+      </c>
+      <c r="N283" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ミクリ
+S11a]</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M284" t="n">
+        <v>260</v>
+      </c>
+      <c r="N284" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヒノアラシ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M285" t="n">
+        <v>320</v>
+      </c>
+      <c r="N285" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ダートじてんしゃ
+sm7]</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M286" t="n">
+        <v>2380</v>
+      </c>
+      <c r="N286" t="n">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>〔状態A-〕マスタードれんげきのかた
+S5R]</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M287" t="n">
+        <v>380</v>
+      </c>
+      <c r="N287" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>〔状態B〕ザマゼンタV
+SI]</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M288" t="n">
+        <v>420</v>
+      </c>
+      <c r="N288" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>〔状態A-〕マサキのメンテナンス
+sm6]</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M289" t="n">
+        <v>5980</v>
+      </c>
+      <c r="N289" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヒスイダイケンキVSTAR
+S9a]</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M290" t="n">
+        <v>480</v>
+      </c>
+      <c r="N290" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ビリジオン
+その他]</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M291" t="n">
+        <v>32800</v>
+      </c>
+      <c r="N291" t="n">
+        <v>26240</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>〔状態A-〕セレビィ＆フシギバナGX
+sm9]</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M292" t="n">
+        <v>4880</v>
+      </c>
+      <c r="N292" t="n">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ポプラ
+s3a]</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M293" t="n">
+        <v>580</v>
+      </c>
+      <c r="N293" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>〔状態C〕ゴマゾウ
+その他]</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M294" t="n">
+        <v>690</v>
+      </c>
+      <c r="N294" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>〔状態B〕ポケモンキャッチャー
+XY]</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M295" t="n">
+        <v>2780</v>
+      </c>
+      <c r="N295" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>〔状態C〕ゼニガメ(マクドナルド)
+その他]</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M296" t="n">
+        <v>138000</v>
+      </c>
+      <c r="N296" t="n">
+        <v>110400</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>〔状態B〕トルネロスV(SA)
+S6H]</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M297" t="n">
+        <v>2780</v>
+      </c>
+      <c r="N297" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>〔状態B〕カイリューGX
+sm6]</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M298" t="n">
+        <v>12800</v>
+      </c>
+      <c r="N298" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>〔状態B〕ミュウツーEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M299" t="n">
+        <v>5980</v>
+      </c>
+      <c r="N299" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>〔状態C〕テラキオンEX
+その他]</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M300" t="n">
+        <v>2390</v>
+      </c>
+      <c r="N300" t="n">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>〔状態C〕ルギアGX
+sm8]</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M301" t="n">
+        <v>790</v>
+      </c>
+      <c r="N301" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>〔状態B〕ソルガレオGX
+sm1]</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M302" t="n">
+        <v>3280</v>
+      </c>
+      <c r="N302" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>〔状態C〕ジュラルドン
+S-P]</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M303" t="n">
+        <v>590</v>
+      </c>
+      <c r="N303" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>〔状態C〕ユニットエネルギー草炎水
+sm5]</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M304" t="n">
+        <v>1280</v>
+      </c>
+      <c r="N304" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>〔状態C〕レックウザEX
+その他]</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M305" t="n">
+        <v>42800</v>
+      </c>
+      <c r="N305" t="n">
+        <v>34240</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>〔状態B〕グズマ
+sm3]</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M306" t="n">
+        <v>9480</v>
+      </c>
+      <c r="N306" t="n">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>〔状態B〕ゲンガー＆ミミッキュGX(SA)
+sm9]</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M307" t="n">
+        <v>148000</v>
+      </c>
+      <c r="N307" t="n">
+        <v>118400</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>〔状態B〕プリズムエネルギー
+その他]</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M308" t="n">
+        <v>14800</v>
+      </c>
+      <c r="N308" t="n">
+        <v>11840</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>〔状態B〕ルナアーラGX
+sm8b]</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M309" t="n">
+        <v>2480</v>
+      </c>
+      <c r="N309" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>〔状態B〕ポケモンセンターのお姉さん
+XY]</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M310" t="n">
+        <v>44800</v>
+      </c>
+      <c r="N310" t="n">
+        <v>35840</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本草エネルギー
+sm12a]</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M311" t="n">
+        <v>780</v>
+      </c>
+      <c r="N311" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ダイゴのメタグロスex
+M2a]</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M312" t="n">
+        <v>4580</v>
+      </c>
+      <c r="N312" t="n">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メガユキメノコex
+M2a]</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M313" t="n">
+        <v>730</v>
+      </c>
+      <c r="N313" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>〔状態B〕エレザード
+M2a]</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M314" t="n">
+        <v>280</v>
+      </c>
+      <c r="N314" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>〔状態C〕ダブラン
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M315" t="n">
+        <v>220</v>
+      </c>
+      <c r="N315" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ふりそで</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M316" t="n">
+        <v>11800</v>
+      </c>
+      <c r="N316" t="n">
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>〔状態A-〕チャデス
+SV5a]</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M317" t="n">
+        <v>450</v>
+      </c>
+      <c r="N317" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>グソクムシャGX</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M318" t="n">
+        <v>880</v>
+      </c>
+      <c r="N318" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>カメックス(25th)</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M319" t="n">
+        <v>14800</v>
+      </c>
+      <c r="N319" t="n">
+        <v>11840</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>エンペルトV</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M320" t="n">
+        <v>680</v>
+      </c>
+      <c r="N320" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ピカチュウ</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M321" t="n">
+        <v>8980</v>
+      </c>
+      <c r="N321" t="n">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ラクライ</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M322" t="n">
+        <v>580</v>
+      </c>
+      <c r="N322" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>ピカチュウ</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
+        <v>29800</v>
+      </c>
+      <c r="N323" t="n">
+        <v>23840</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>スナバァ</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M324" t="n">
+        <v>480</v>
+      </c>
+      <c r="N324" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>アンノーンVSTAR</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>RRR</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M325" t="n">
+        <v>280</v>
+      </c>
+      <c r="N325" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ベトベトン＆アローラベトベトンGX(SA)</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M326" t="n">
+        <v>6480</v>
+      </c>
+      <c r="N326" t="n">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>ドッコラー</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M327" t="n">
+        <v>580</v>
+      </c>
+      <c r="N327" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>れんげきウーラオスVMAX</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>CSR</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M328" t="n">
+        <v>1580</v>
+      </c>
+      <c r="N328" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>メガルカリオex</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M329" t="n">
+        <v>220</v>
+      </c>
+      <c r="N329" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>〔状態A-〕マシマシラex
+SV6a]</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M330" t="n">
+        <v>380</v>
+      </c>
+      <c r="N330" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕ホップのザシアンex</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M331" t="n">
+        <v>8980</v>
+      </c>
+      <c r="N331" t="n">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ブロロロームex</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M332" t="n">
+        <v>480</v>
+      </c>
+      <c r="N332" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>ツンデツンデGX</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M333" t="n">
+        <v>580</v>
+      </c>
+      <c r="N333" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>パルキアGX</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M334" t="n">
+        <v>980</v>
+      </c>
+      <c r="N334" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>ヌイコグマ</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M335" t="n">
+        <v>580</v>
+      </c>
+      <c r="N335" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ブレイブバングル
+M-P]</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M336" t="n">
+        <v>6980</v>
+      </c>
+      <c r="N336" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>闘魂のまわし(カメックスメガバトル)</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M337" t="n">
+        <v>1780</v>
+      </c>
+      <c r="N337" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>基本雷エネルギー(BWデザイン/ミラー)</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M338" t="n">
+        <v>1080</v>
+      </c>
+      <c r="N338" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>基本超エネルギー(チャンピオンズリーグ2023)</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M339" t="n">
+        <v>880</v>
+      </c>
+      <c r="N339" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>基本超エネルギー(ファーストデザイン)</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M340" t="n">
+        <v>880</v>
+      </c>
+      <c r="N340" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>シュウメイ</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M341" t="n">
+        <v>280</v>
+      </c>
+      <c r="N341" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ジュン(ミラー)</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M342" t="n">
+        <v>280</v>
+      </c>
+      <c r="N342" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ローズ</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M343" t="n">
+        <v>480</v>
+      </c>
+      <c r="N343" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ユカリ</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="M344" t="n">
+        <v>480</v>
+      </c>
+      <c r="N344" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>プロトーガ</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M345" t="n">
+        <v>580</v>
+      </c>
+      <c r="N345" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>〔状態A-〕デデンネ(XY激アツ始動キャンペーン)
+XY]</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M346" t="n">
+        <v>1230</v>
+      </c>
+      <c r="N346" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>〔状態B〕カメックス(トリプルゲットキャンペーン)
+その他]</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M347" t="n">
+        <v>69800</v>
+      </c>
+      <c r="N347" t="n">
+        <v>55840</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>〔状態C〕モスノウ
+S8b]</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M348" t="n">
+        <v>220</v>
+      </c>
+      <c r="N348" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>〔状態C〕アローラロコン
+その他]</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M349" t="n">
+        <v>380</v>
+      </c>
+      <c r="N349" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>〔状態A-〕レシラム
+その他]</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M350" t="n">
+        <v>1880</v>
+      </c>
+      <c r="N350" t="n">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>〔状態B〕ポカブ
+その他]</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M351" t="n">
+        <v>2580</v>
+      </c>
+      <c r="N351" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>〔状態C〕ミロカロス
+S11a]</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M352" t="n">
+        <v>280</v>
+      </c>
+      <c r="N352" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>〔状態C〕ロケット団のファイヤーex
+SV10]</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M353" t="n">
+        <v>230</v>
+      </c>
+      <c r="N353" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>〔状態A-〕チョロネコ
+その他]</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M354" t="n">
+        <v>2480</v>
+      </c>
+      <c r="N354" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>〔状態B〕ハイパーボール
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M355" t="n">
+        <v>320</v>
+      </c>
+      <c r="N355" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>〔状態C〕ロケット団のミュウツーex
+SV10]</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M356" t="n">
+        <v>3980</v>
+      </c>
+      <c r="N356" t="n">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>〔状態C〕ジャローダex
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M357" t="n">
+        <v>1280</v>
+      </c>
+      <c r="N357" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>〔状態B〕シャンデラ
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M358" t="n">
+        <v>980</v>
+      </c>
+      <c r="N358" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>〔状態B〕ロケット団のニドキングex
+SV10]</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M359" t="n">
+        <v>320</v>
+      </c>
+      <c r="N359" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>〔状態A-〕かるいし
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M360" t="n">
+        <v>830</v>
+      </c>
+      <c r="N360" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>〔状態C〕ポケパークのミズゴロウ
+その他]</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M361" t="n">
+        <v>1180</v>
+      </c>
+      <c r="N361" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ディアルガLV.X
+その他]</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M362" t="n">
+        <v>4990</v>
+      </c>
+      <c r="N362" t="n">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本悪エネルギー(フレンドバトル)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M363" t="n">
+        <v>260</v>
+      </c>
+      <c r="N363" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>〔状態C〕テツノイワオex
+SV5M]</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M364" t="n">
+        <v>280</v>
+      </c>
+      <c r="N364" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>〔状態C〕スナノケガワex
+SV4K]</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M365" t="n">
+        <v>420</v>
+      </c>
+      <c r="N365" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>〔状態C〕基本闘エネルギー(チャンピオンズリーグ2024)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M366" t="n">
+        <v>220</v>
+      </c>
+      <c r="N366" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ピカチュウ(未開封/台北オープン記念)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M367" t="n">
+        <v>18300</v>
+      </c>
+      <c r="N367" t="n">
+        <v>14640</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ワッカネズミ
+SV4a]</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M368" t="n">
+        <v>530</v>
+      </c>
+      <c r="N368" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>〔状態C〕基本フェアリーエネルギー(ステーション/SM新デザイン)
+その他]</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M369" t="n">
+        <v>320</v>
+      </c>
+      <c r="N369" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>〔状態B〕メロコ
+SV4K]</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr"/>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M370" t="n">
+        <v>320</v>
+      </c>
+      <c r="N370" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ふくよかミュージシャン(未開封)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr"/>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M371" t="n">
+        <v>2150</v>
+      </c>
+      <c r="N371" t="n">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本草エネルギー
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M372" t="n">
+        <v>580</v>
+      </c>
+      <c r="N372" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>〔状態C〕シンボラー
+その他]</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M373" t="n">
+        <v>12800</v>
+      </c>
+      <c r="N373" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ネクロズマたそがれのたてがみGX
+sm5]</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M374" t="n">
+        <v>250</v>
+      </c>
+      <c r="N374" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>〔状態C〕ツツジ
+S9a]</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M375" t="n">
+        <v>280</v>
+      </c>
+      <c r="N375" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>〔状態C〕ナタネの活気
+S10D]</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M376" t="n">
+        <v>980</v>
+      </c>
+      <c r="N376" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>〔状態C〕イダイナキバex
+SV1S]</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M377" t="n">
+        <v>680</v>
+      </c>
+      <c r="N377" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>〔状態B〕コオリッポ
+SV2P]</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M378" t="n">
+        <v>420</v>
+      </c>
+      <c r="N378" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>〔状態C〕レックウザVMAX
+S8b]</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M379" t="n">
+        <v>2180</v>
+      </c>
+      <c r="N379" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>〔状態B〕キルリア
+SV1S]</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M380" t="n">
+        <v>580</v>
+      </c>
+      <c r="N380" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>〔状態C〕おいわいファンファーレ(2022)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M381" t="n">
+        <v>6980</v>
+      </c>
+      <c r="N381" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ベベノム
+その他]</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M382" t="n">
+        <v>250</v>
+      </c>
+      <c r="N382" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>〔状態A-〕イーブイ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M383" t="n">
+        <v>580</v>
+      </c>
+      <c r="N383" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>〔状態A-〕モルペコ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M384" t="n">
+        <v>690</v>
+      </c>
+      <c r="N384" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ジラーチ
+その他]</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M385" t="n">
+        <v>18300</v>
+      </c>
+      <c r="N385" t="n">
+        <v>14640</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>〔状態C〕セイボリー
+S5a]</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M386" t="n">
+        <v>380</v>
+      </c>
+      <c r="N386" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カナザワのピカチュウ(未開封)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M387" t="n">
+        <v>72800</v>
+      </c>
+      <c r="N387" t="n">
+        <v>58240</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>〔状態A-〕勝利のメダル(銅2009/ピカチュウ)
+その他]</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M388" t="n">
+        <v>31800</v>
+      </c>
+      <c r="N388" t="n">
+        <v>25440</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>〔状態A-〕リザードン
+XY]</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr"/>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M389" t="n">
+        <v>39800</v>
+      </c>
+      <c r="N389" t="n">
+        <v>31840</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ムゲンダイナVMAX
+S8b]</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>CSR</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M390" t="n">
+        <v>730</v>
+      </c>
+      <c r="N390" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ミュウex(25th)
+S8a-P]</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M391" t="n">
+        <v>5780</v>
+      </c>
+      <c r="N391" t="n">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ピカチュウ(バトルフェスタ2015)
+XY]</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M392" t="n">
+        <v>328000</v>
+      </c>
+      <c r="N392" t="n">
+        <v>262400</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>〔状態B〕ダンサー
+S8]</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M393" t="n">
+        <v>420</v>
+      </c>
+      <c r="N393" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ミュウツー(バトルフェスタ2015)
+XY]</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M394" t="n">
+        <v>6280</v>
+      </c>
+      <c r="N394" t="n">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ジラーチEX
+その他]</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M395" t="n">
+        <v>29800</v>
+      </c>
+      <c r="N395" t="n">
+        <v>23840</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本超エネルギー(LEGENDキラ)
+その他]</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M396" t="n">
+        <v>6980</v>
+      </c>
+      <c r="N396" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>〔状態B〕キバナ(R仕様)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M397" t="n">
+        <v>320</v>
+      </c>
+      <c r="N397" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ゼクロムGX(SR仕様)
+その他]</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M398" t="n">
+        <v>298000</v>
+      </c>
+      <c r="N398" t="n">
+        <v>238400</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>〔状態C〕リザードンV(SR仕様)</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M399" t="n">
+        <v>148000</v>
+      </c>
+      <c r="N399" t="n">
+        <v>118400</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>〔状態B〕デデンネ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M400" t="n">
+        <v>290</v>
+      </c>
+      <c r="N400" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>〔状態B〕ギャラドス
+XY]</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M401" t="n">
+        <v>178000</v>
+      </c>
+      <c r="N401" t="n">
+        <v>142400</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>〔状態B〕ピカチュウ(おかいもの名古屋)
+その他]</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M402" t="n">
+        <v>34800</v>
+      </c>
+      <c r="N402" t="n">
+        <v>27840</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>〔状態C〕コータス
+sm11b]</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M403" t="n">
+        <v>680</v>
+      </c>
+      <c r="N403" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>〔状態B〕勝利のメダル(金/バクフーン)
+その他]</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr"/>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M404" t="n">
+        <v>10800</v>
+      </c>
+      <c r="N404" t="n">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>〔状態B〕ロイヤルマスク
+その他]</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M405" t="n">
+        <v>490</v>
+      </c>
+      <c r="N405" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>〔状態B〕ニンフィアGX
+sm4]</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M406" t="n">
+        <v>1080</v>
+      </c>
+      <c r="N406" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>〔状態B〕ジガルデGX
+その他]</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M407" t="n">
+        <v>880</v>
+      </c>
+      <c r="N407" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>〔状態C〕ゼラオラGX
+sm7]</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M408" t="n">
+        <v>580</v>
+      </c>
+      <c r="N408" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>〔状態C〕ドヒドイデGX
+sm1]</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M409" t="n">
+        <v>1980</v>
+      </c>
+      <c r="N409" t="n">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>〔状態C〕ポケナビ
+sm6]</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M410" t="n">
+        <v>980</v>
+      </c>
+      <c r="N410" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>〔状態C〕グレイシアGX
+sm5]</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M411" t="n">
+        <v>1480</v>
+      </c>
+      <c r="N411" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>〔状態C〕フィールドブロアー
+sm2]</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M412" t="n">
+        <v>8480</v>
+      </c>
+      <c r="N412" t="n">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>〔状態C〕カプ・コケコGX
+sm2]</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="M413" t="n">
+        <v>1190</v>
+      </c>
+      <c r="N413" t="n">
+        <v>952</v>
       </c>
     </row>
   </sheetData>

--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -2769,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P413"/>
+  <dimension ref="A1:T424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2843,6 +2843,26 @@
           <t>2026-02-24_diff</t>
         </is>
       </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>2026-02-25_price</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>2026-02-25_buy</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>2026-02-25_ratio</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>2026-02-25_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8726,7 +8746,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -8751,7 +8770,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -8776,7 +8794,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -8801,7 +8818,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -8826,7 +8842,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -8851,7 +8866,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -8876,7 +8890,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -8901,7 +8914,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -8926,7 +8938,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -8951,7 +8962,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -8976,7 +8986,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9001,7 +9010,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9026,7 +9034,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9051,7 +9058,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9076,7 +9082,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9101,7 +9106,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9126,7 +9130,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9151,7 +9154,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9176,7 +9178,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9201,7 +9202,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9226,7 +9226,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9251,7 +9250,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9276,7 +9274,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9301,7 +9298,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9326,7 +9322,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9351,7 +9346,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9376,7 +9370,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9401,7 +9394,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9426,7 +9418,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9451,7 +9442,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9476,7 +9466,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9501,7 +9490,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9526,7 +9514,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9551,7 +9538,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9576,7 +9562,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9601,7 +9586,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9626,7 +9610,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9651,7 +9634,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9676,7 +9658,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9701,7 +9682,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9726,7 +9706,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9751,7 +9730,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9776,7 +9754,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9801,7 +9778,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9826,7 +9802,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9851,7 +9826,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9876,7 +9850,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9901,7 +9874,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9926,7 +9898,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9951,7 +9922,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -9976,7 +9946,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10001,7 +9970,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10026,7 +9994,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10051,7 +10018,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10076,7 +10042,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10101,7 +10066,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10126,7 +10090,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10151,7 +10114,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10176,7 +10138,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10201,7 +10162,6 @@
           <t>MA</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10226,7 +10186,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10251,7 +10210,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10275,7 +10233,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10300,7 +10257,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10324,7 +10280,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10348,7 +10303,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10372,7 +10326,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10396,7 +10349,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10420,7 +10372,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10444,7 +10395,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10468,7 +10418,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10492,7 +10441,6 @@
           <t>RRR</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10516,7 +10464,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10540,7 +10487,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10564,7 +10510,6 @@
           <t>CSR</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10588,7 +10533,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10613,7 +10557,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10637,7 +10580,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10661,7 +10603,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10685,7 +10626,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10709,7 +10649,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10733,7 +10672,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10758,7 +10696,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10782,7 +10719,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10806,7 +10742,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10830,7 +10765,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10854,7 +10788,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10878,7 +10811,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10902,7 +10834,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10926,7 +10857,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10950,7 +10880,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -10974,7 +10903,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -10999,7 +10927,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11024,7 +10951,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11049,7 +10975,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11074,7 +10999,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11099,7 +11023,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11124,7 +11047,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11149,7 +11071,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11174,7 +11095,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11199,7 +11119,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11224,7 +11143,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11249,7 +11167,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11274,7 +11191,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11299,7 +11215,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11324,7 +11239,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11349,7 +11263,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11374,7 +11287,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11399,7 +11311,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11424,7 +11335,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11449,7 +11359,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr"/>
       <c r="D364" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11474,7 +11383,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11499,7 +11407,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11524,7 +11431,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11549,7 +11455,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11574,7 +11479,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11599,7 +11503,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11624,7 +11527,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11649,7 +11551,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr"/>
       <c r="D372" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11674,7 +11575,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr"/>
       <c r="D373" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11699,7 +11599,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr"/>
       <c r="D374" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11724,7 +11623,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11749,7 +11647,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11774,7 +11671,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr"/>
       <c r="D377" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11799,7 +11695,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11824,7 +11719,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr"/>
       <c r="D379" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11849,7 +11743,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11874,7 +11767,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11899,7 +11791,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11924,7 +11815,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11949,7 +11839,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11974,7 +11863,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -11999,7 +11887,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12024,7 +11911,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12049,7 +11935,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12074,7 +11959,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12099,7 +11983,6 @@
           <t>CSR</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12124,7 +12007,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr"/>
       <c r="D391" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12149,7 +12031,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12174,7 +12055,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12199,7 +12079,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12224,7 +12103,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr"/>
       <c r="D395" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12249,7 +12127,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr"/>
       <c r="D396" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12274,7 +12151,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr"/>
       <c r="D397" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12299,7 +12175,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12323,7 +12198,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12348,7 +12222,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12373,7 +12246,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr"/>
       <c r="D401" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12398,7 +12270,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12423,7 +12294,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12448,7 +12318,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12473,7 +12342,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12498,7 +12366,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12523,7 +12390,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12548,7 +12414,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr"/>
       <c r="D408" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12573,7 +12438,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12598,7 +12462,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12623,7 +12486,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12648,7 +12510,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr"/>
       <c r="D412" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12673,7 +12534,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr"/>
       <c r="D413" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -12684,6 +12544,281 @@
       </c>
       <c r="N413" t="n">
         <v>952</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>〔状態B〕チルタリス
+その他]</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q414" t="n">
+        <v>1180</v>
+      </c>
+      <c r="R414" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ビクティニ(BWR仕様/当選通知書付き)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q415" t="n">
+        <v>97800</v>
+      </c>
+      <c r="R415" t="n">
+        <v>78240</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ガチグマアカツキex
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q416" t="n">
+        <v>380</v>
+      </c>
+      <c r="R416" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ガマゲロゲ
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q417" t="n">
+        <v>8480</v>
+      </c>
+      <c r="R417" t="n">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メラルバ
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q418" t="n">
+        <v>580</v>
+      </c>
+      <c r="R418" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>〔状態B〕ロケット団のヤミカラス
+SV10]</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q419" t="n">
+        <v>580</v>
+      </c>
+      <c r="R419" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヒビキの冒険
+SV9a]</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q420" t="n">
+        <v>5980</v>
+      </c>
+      <c r="R420" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ブリジュラス
+SV7]</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q421" t="n">
+        <v>380</v>
+      </c>
+      <c r="R421" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>〔状態A-〕タロ
+SV7]</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q422" t="n">
+        <v>1390</v>
+      </c>
+      <c r="R422" t="n">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>〔状態B〕オーガポンかまどのめんex
+SV6]</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q423" t="n">
+        <v>880</v>
+      </c>
+      <c r="R423" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>〔状態A-〕アーボック
+SV5K]</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Q424" t="n">
+        <v>590</v>
+      </c>
+      <c r="R424" t="n">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -2769,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T424"/>
+  <dimension ref="A1:X576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2863,6 +2863,26 @@
           <t>2026-02-25_diff</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>2026-02-26_price</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>2026-02-26_buy</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>2026-02-26_ratio</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>2026-02-26_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12558,7 +12578,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr"/>
       <c r="D414" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12583,7 +12602,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12608,7 +12626,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12633,7 +12650,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr"/>
       <c r="D417" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12658,7 +12674,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12683,7 +12698,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12708,7 +12722,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12733,7 +12746,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr"/>
       <c r="D421" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12758,7 +12770,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr"/>
       <c r="D422" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12783,7 +12794,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr"/>
       <c r="D423" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12808,7 +12818,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr"/>
       <c r="D424" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12819,6 +12828,3767 @@
       </c>
       <c r="R424" t="n">
         <v>472</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本水エネルギー(チャンピオンズリーグ2026)
+M-P]</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U425" t="n">
+        <v>580</v>
+      </c>
+      <c r="V425" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>〔状態B〕カラマネロ
+XY]</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U426" t="n">
+        <v>1090</v>
+      </c>
+      <c r="V426" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ギギギアル(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U427" t="n">
+        <v>1880</v>
+      </c>
+      <c r="V427" t="n">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>〔状態B〕ナンジャモ
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U428" t="n">
+        <v>280</v>
+      </c>
+      <c r="V428" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ゴチミル
+SV11W]</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U429" t="n">
+        <v>830</v>
+      </c>
+      <c r="V429" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>〔状態B〕ギギギアル
+SV11W]</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U430" t="n">
+        <v>420</v>
+      </c>
+      <c r="V430" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ロケット団のニャース
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U431" t="n">
+        <v>1890</v>
+      </c>
+      <c r="V431" t="n">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>〔状態B〕ザマゼンタ
+SV10]</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U432" t="n">
+        <v>380</v>
+      </c>
+      <c r="V432" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>〔状態C〕モクロー(ポケモンカードフェスタ2017)
+その他]</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U433" t="n">
+        <v>790</v>
+      </c>
+      <c r="V433" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヤンヤンマ
+SV9a]</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U434" t="n">
+        <v>420</v>
+      </c>
+      <c r="V434" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ホエルオー
+SV9]</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U435" t="n">
+        <v>680</v>
+      </c>
+      <c r="V435" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>〔状態B〕ラッタBREAK
+XY]</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U436" t="n">
+        <v>580</v>
+      </c>
+      <c r="V436" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>〔状態B〕ビワ
+SV8a]</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U437" t="n">
+        <v>420</v>
+      </c>
+      <c r="V437" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>〔状態A-〕タタッコ
+SV7a]</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U438" t="n">
+        <v>480</v>
+      </c>
+      <c r="V438" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>〔状態A-〕バティックシャツのピカチュウ(未開封/ネイティオ柄)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U439" t="n">
+        <v>3680</v>
+      </c>
+      <c r="V439" t="n">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メッソン
+S-P]</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U440" t="n">
+        <v>450</v>
+      </c>
+      <c r="V440" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ビワ
+SV5K]</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U441" t="n">
+        <v>390</v>
+      </c>
+      <c r="V441" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>〔状態B〕ガブリアスEX(XY激アツ始動キャンペーン)
+XY]</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U442" t="n">
+        <v>890</v>
+      </c>
+      <c r="V442" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ヤドン
+SV4a]</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U443" t="n">
+        <v>680</v>
+      </c>
+      <c r="V443" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カウンターキャッチャー
+SV4M]</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U444" t="n">
+        <v>2630</v>
+      </c>
+      <c r="V444" t="n">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>〔状態B〕モトトカゲ
+SV3a]</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U445" t="n">
+        <v>280</v>
+      </c>
+      <c r="V445" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>〔状態A-〕学習装置
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U446" t="n">
+        <v>260</v>
+      </c>
+      <c r="V446" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ブラッキー(YU NAGABA)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U447" t="n">
+        <v>21800</v>
+      </c>
+      <c r="V447" t="n">
+        <v>17440</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>〔状態A-〕フシギバナex
+SV2a]</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U448" t="n">
+        <v>14300</v>
+      </c>
+      <c r="V448" t="n">
+        <v>11440</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヤレユータンV
+S10P]</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U449" t="n">
+        <v>280</v>
+      </c>
+      <c r="V449" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヘラクロス
+SV2D]</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U450" t="n">
+        <v>320</v>
+      </c>
+      <c r="V450" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>〔状態B〕ムウマージ
+SV1a]</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U451" t="n">
+        <v>880</v>
+      </c>
+      <c r="V451" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ギャラドスex
+SV1S]</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U452" t="n">
+        <v>1230</v>
+      </c>
+      <c r="V452" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ハウ
+その他]</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U453" t="n">
+        <v>330</v>
+      </c>
+      <c r="V453" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本雷エネルギー(SS新デザイン)
+S12a]</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U454" t="n">
+        <v>300</v>
+      </c>
+      <c r="V454" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ガラルニャース
+s4a]</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U455" t="n">
+        <v>330</v>
+      </c>
+      <c r="V455" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>〔状態A-〕セレナ
+S11a]</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U456" t="n">
+        <v>1680</v>
+      </c>
+      <c r="V456" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>〔状態A-〕グズマ
+その他]</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U457" t="n">
+        <v>1530</v>
+      </c>
+      <c r="V457" t="n">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ライチュウGX
+sm3]</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U458" t="n">
+        <v>31800</v>
+      </c>
+      <c r="V458" t="n">
+        <v>25440</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カヒリ
+その他]</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U459" t="n">
+        <v>1230</v>
+      </c>
+      <c r="V459" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ロトム図鑑
+その他]</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U460" t="n">
+        <v>1790</v>
+      </c>
+      <c r="V460" t="n">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>〔状態A-〕チャンピオンズフェスティバル(2013)
+その他]</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U461" t="n">
+        <v>268000</v>
+      </c>
+      <c r="V461" t="n">
+        <v>214400</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>〔状態A-〕リザードン(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U462" t="n">
+        <v>16300</v>
+      </c>
+      <c r="V462" t="n">
+        <v>13040</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メタグロスGX
+sm2]</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U463" t="n">
+        <v>330</v>
+      </c>
+      <c r="V463" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>〔状態A-〕リーフィアVMAX
+S6a]</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U464" t="n">
+        <v>3580</v>
+      </c>
+      <c r="V464" t="n">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>〔状態A-〕イワンコ
+S8b]</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U465" t="n">
+        <v>530</v>
+      </c>
+      <c r="V465" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ルナアーラGX
+sm8b]</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U466" t="n">
+        <v>3580</v>
+      </c>
+      <c r="V466" t="n">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>〔状態A-〕チルタリスGX
+sm7]</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U467" t="n">
+        <v>1090</v>
+      </c>
+      <c r="V467" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カプ・レヒレGX
+sm4]</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U468" t="n">
+        <v>250</v>
+      </c>
+      <c r="V468" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ガブリアスV
+S9a]</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U469" t="n">
+        <v>730</v>
+      </c>
+      <c r="V469" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ぼんぐり職人
+sm6]</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U470" t="n">
+        <v>3280</v>
+      </c>
+      <c r="V470" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ルカリオ＆メルメタルGX(SA)
+SM9b]</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr"/>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U471" t="n">
+        <v>20300</v>
+      </c>
+      <c r="V471" t="n">
+        <v>16240</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ウカッツ
+s4a]</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr"/>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U472" t="n">
+        <v>380</v>
+      </c>
+      <c r="V472" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>〔状態B〕イーブイ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U473" t="n">
+        <v>380</v>
+      </c>
+      <c r="V473" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>〔状態A-〕モルペコV-UNION
+S8b]</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>CSR</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U474" t="n">
+        <v>2180</v>
+      </c>
+      <c r="V474" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>〔状態B〕カヒリ
+その他]</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U475" t="n">
+        <v>980</v>
+      </c>
+      <c r="V475" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本炎エネルギー(セブンイレブン)
+その他]</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U476" t="n">
+        <v>1080</v>
+      </c>
+      <c r="V476" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>〔状態B〕クレセリア
+S7D]</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U477" t="n">
+        <v>1180</v>
+      </c>
+      <c r="V477" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>〔状態B〕シャワーズV(SA)
+S6a]</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr"/>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U478" t="n">
+        <v>14800</v>
+      </c>
+      <c r="V478" t="n">
+        <v>11840</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>〔状態B〕いちげきエネルギー
+S5I]</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U479" t="n">
+        <v>320</v>
+      </c>
+      <c r="V479" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>〔状態B〕ちからのハチマキ(リザードンメガバトル)
+XY]</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U480" t="n">
+        <v>1080</v>
+      </c>
+      <c r="V480" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>〔状態B〕ドクロッグEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U481" t="n">
+        <v>2490</v>
+      </c>
+      <c r="V481" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>〔状態B〕プテラGX
+sm11]</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U482" t="n">
+        <v>1280</v>
+      </c>
+      <c r="V482" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>〔状態B〕ローズ
+s4a]</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U483" t="n">
+        <v>280</v>
+      </c>
+      <c r="V483" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>〔状態B〕ゲノセクトEX
+その他]</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U484" t="n">
+        <v>6480</v>
+      </c>
+      <c r="V484" t="n">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>〔状態C〕アローラナッシーGX
+sm4]</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr"/>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U485" t="n">
+        <v>420</v>
+      </c>
+      <c r="V485" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>〔状態C〕無人発電所
+sm11b]</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr"/>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U486" t="n">
+        <v>220</v>
+      </c>
+      <c r="V486" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>〔状態C〕ザシアンV
+s1]</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U487" t="n">
+        <v>230</v>
+      </c>
+      <c r="V487" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>〔状態B〕ドサイドンV
+S3]</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U488" t="n">
+        <v>320</v>
+      </c>
+      <c r="V488" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヤーコン
+sm12a]</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U489" t="n">
+        <v>780</v>
+      </c>
+      <c r="V489" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>〔状態B〕サーナイトEX
+CP3]</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U490" t="n">
+        <v>44800</v>
+      </c>
+      <c r="V490" t="n">
+        <v>35840</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>〔状態B〕メガサーナイトex
+M2a]</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U491" t="n">
+        <v>780</v>
+      </c>
+      <c r="V491" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕MヘラクロスEX</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U492" t="n">
+        <v>12800</v>
+      </c>
+      <c r="V492" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>ビリジオンV</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U493" t="n">
+        <v>580</v>
+      </c>
+      <c r="V493" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>ラフレシアGX(SA)</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U494" t="n">
+        <v>9480</v>
+      </c>
+      <c r="V494" t="n">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕ビクティニV(Vバレット)</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U495" t="n">
+        <v>158000</v>
+      </c>
+      <c r="V495" t="n">
+        <v>126400</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>ロケット団のヘルガー</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr"/>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U496" t="n">
+        <v>880</v>
+      </c>
+      <c r="V496" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>サーナイトexδ-デルタ種(25th)</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U497" t="n">
+        <v>3480</v>
+      </c>
+      <c r="V497" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>コータスV</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U498" t="n">
+        <v>480</v>
+      </c>
+      <c r="V498" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ミロカロスex
+SV8]</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U499" t="n">
+        <v>13800</v>
+      </c>
+      <c r="V499" t="n">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>ヒヤッキー</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U500" t="n">
+        <v>580</v>
+      </c>
+      <c r="V500" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>ユキハミ</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U501" t="n">
+        <v>480</v>
+      </c>
+      <c r="V501" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>ウェーニバルex</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr"/>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U502" t="n">
+        <v>2780</v>
+      </c>
+      <c r="V502" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>オリジンパルキアV</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr"/>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U503" t="n">
+        <v>780</v>
+      </c>
+      <c r="V503" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>はくばバドレックスV</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr"/>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U504" t="n">
+        <v>580</v>
+      </c>
+      <c r="V504" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>ゼクロムex</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U505" t="n">
+        <v>780</v>
+      </c>
+      <c r="V505" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ブロロロームex
+SV6a]</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U506" t="n">
+        <v>380</v>
+      </c>
+      <c r="V506" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メガサーナイトex
+M1S]</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>MUR</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr"/>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U507" t="n">
+        <v>47800</v>
+      </c>
+      <c r="V507" t="n">
+        <v>38240</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>テツノカシラex</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr"/>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U508" t="n">
+        <v>480</v>
+      </c>
+      <c r="V508" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>こくばバドレックスV(SA)</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr"/>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U509" t="n">
+        <v>3980</v>
+      </c>
+      <c r="V509" t="n">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>キョジオーン</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U510" t="n">
+        <v>580</v>
+      </c>
+      <c r="V510" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>マンムーex</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U511" t="n">
+        <v>580</v>
+      </c>
+      <c r="V511" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>キラフロルex</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U512" t="n">
+        <v>480</v>
+      </c>
+      <c r="V512" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>バサギリVSTAR</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U513" t="n">
+        <v>680</v>
+      </c>
+      <c r="V513" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>ウソッキー</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U514" t="n">
+        <v>580</v>
+      </c>
+      <c r="V514" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕ブラッキー＆ダークライGX(SA)</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U515" t="n">
+        <v>278000</v>
+      </c>
+      <c r="V515" t="n">
+        <v>222400</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>スカタンクV</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U516" t="n">
+        <v>580</v>
+      </c>
+      <c r="V516" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>メルメタルV</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U517" t="n">
+        <v>480</v>
+      </c>
+      <c r="V517" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>フラージェスBREAK</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr"/>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U518" t="n">
+        <v>580</v>
+      </c>
+      <c r="V518" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>レジドラゴVSTAR</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>RRR</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U519" t="n">
+        <v>280</v>
+      </c>
+      <c r="V519" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>ガブリアス</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U520" t="n">
+        <v>1180</v>
+      </c>
+      <c r="V520" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>パフュートン</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U521" t="n">
+        <v>380</v>
+      </c>
+      <c r="V521" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>きずぐすり</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U522" t="n">
+        <v>480</v>
+      </c>
+      <c r="V522" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>ぼうけんのカバン</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U523" t="n">
+        <v>380</v>
+      </c>
+      <c r="V523" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>ジェットエネルギー</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U524" t="n">
+        <v>780</v>
+      </c>
+      <c r="V524" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>基本鋼エネルギー(ステーション/SSデザイン)</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U525" t="n">
+        <v>580</v>
+      </c>
+      <c r="V525" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>基本超エネルギー(ジムチャレンジ)</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U526" t="n">
+        <v>980</v>
+      </c>
+      <c r="V526" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ミカンのまなざし
+SV8]</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U527" t="n">
+        <v>930</v>
+      </c>
+      <c r="V527" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>ベルのまごころ</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr"/>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U528" t="n">
+        <v>7480</v>
+      </c>
+      <c r="V528" t="n">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>グルーシャ</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U529" t="n">
+        <v>5480</v>
+      </c>
+      <c r="V529" t="n">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>セキ</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U530" t="n">
+        <v>480</v>
+      </c>
+      <c r="V530" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>マリィ</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U531" t="n">
+        <v>10800</v>
+      </c>
+      <c r="V531" t="n">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>リーリエ</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U532" t="n">
+        <v>1780</v>
+      </c>
+      <c r="V532" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>ぼんぐり職人</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U533" t="n">
+        <v>3780</v>
+      </c>
+      <c r="V533" t="n">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>結晶の洞窟</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="U534" t="n">
+        <v>880</v>
+      </c>
+      <c r="V534" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>〔状態C〕レジドラゴV(RR仕様)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U535" t="n">
+        <v>380</v>
+      </c>
+      <c r="V535" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>〔状態C〕ゲノセクト
+その他]</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U536" t="n">
+        <v>380</v>
+      </c>
+      <c r="V536" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>〔状態C〕カラマネロ
+XY]</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U537" t="n">
+        <v>630</v>
+      </c>
+      <c r="V537" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ケルディオ(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U538" t="n">
+        <v>1880</v>
+      </c>
+      <c r="V538" t="n">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>〔状態B〕ガチゴラスEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U539" t="n">
+        <v>2180</v>
+      </c>
+      <c r="V539" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>〔状態C〕ラクライ
+SV9a]</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U540" t="n">
+        <v>220</v>
+      </c>
+      <c r="V540" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>〔状態C〕サンダースex
+SV8a]</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U541" t="n">
+        <v>2180</v>
+      </c>
+      <c r="V541" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>〔状態C〕トウコ
+SV11W]</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U542" t="n">
+        <v>2480</v>
+      </c>
+      <c r="V542" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>〔状態C〕イワパレス
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U543" t="n">
+        <v>220</v>
+      </c>
+      <c r="V543" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>〔状態B〕オタマロ
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U544" t="n">
+        <v>420</v>
+      </c>
+      <c r="V544" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>〔状態C〕おいわいファンファーレ(2023)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U545" t="n">
+        <v>5980</v>
+      </c>
+      <c r="V545" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>〔状態C〕アオキの手際
+SV8a]</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U546" t="n">
+        <v>420</v>
+      </c>
+      <c r="V546" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>〔状態C〕基本悪エネルギー(ジムチャレンジ)
+その他]</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U547" t="n">
+        <v>420</v>
+      </c>
+      <c r="V547" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>〔状態B〕ライチュウ
+XY]</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U548" t="n">
+        <v>5480</v>
+      </c>
+      <c r="V548" t="n">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>〔状態C〕ガラルファイヤー
+S12a]</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U549" t="n">
+        <v>430</v>
+      </c>
+      <c r="V549" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ウネルミナモex
+SV8a]</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U550" t="n">
+        <v>530</v>
+      </c>
+      <c r="V550" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>〔状態C〕タロ
+SV7]</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U551" t="n">
+        <v>2180</v>
+      </c>
+      <c r="V551" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>〔状態C〕ゾロア
+SV6a]</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U552" t="n">
+        <v>280</v>
+      </c>
+      <c r="V552" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>〔状態C〕ポケパークのアチャモ
+その他]</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr"/>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U553" t="n">
+        <v>980</v>
+      </c>
+      <c r="V553" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ディアルガLV.X
+その他]</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U554" t="n">
+        <v>4990</v>
+      </c>
+      <c r="V554" t="n">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>〔状態C〕ハイパーボール
+S-P]</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U555" t="n">
+        <v>220</v>
+      </c>
+      <c r="V555" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ラティオスδ-デルタ種
+その他]</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U556" t="n">
+        <v>6280</v>
+      </c>
+      <c r="V556" t="n">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>〔状態B〕ピッチのピカチュウ(未開封)
+XY]</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U557" t="n">
+        <v>57800</v>
+      </c>
+      <c r="V557" t="n">
+        <v>46240</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>〔状態B〕ゼイユ
+SV6]</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U558" t="n">
+        <v>1980</v>
+      </c>
+      <c r="V558" t="n">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メルタン
+SV5M]</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U559" t="n">
+        <v>480</v>
+      </c>
+      <c r="V559" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>〔状態B〕マツバの確信
+SV5K]</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U560" t="n">
+        <v>880</v>
+      </c>
+      <c r="V560" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>〔状態C〕MピジョットEX
+CP6]</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U561" t="n">
+        <v>1280</v>
+      </c>
+      <c r="V561" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>〔状態C〕ピカチュウ
+その他]</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U562" t="n">
+        <v>590</v>
+      </c>
+      <c r="V562" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>〔状態A-〕デルビル
+その他]</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U563" t="n">
+        <v>9980</v>
+      </c>
+      <c r="V563" t="n">
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>〔状態C〕ウェーニバルex
+SV1a]</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U564" t="n">
+        <v>280</v>
+      </c>
+      <c r="V564" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>〔状態C〕エーフィ(YU NAGABA)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U565" t="n">
+        <v>5980</v>
+      </c>
+      <c r="V565" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>〔状態A-〕オムナイト
+SV2a]</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U566" t="n">
+        <v>480</v>
+      </c>
+      <c r="V566" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>〔状態C〕ペリーラ
+S10D]</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U567" t="n">
+        <v>220</v>
+      </c>
+      <c r="V567" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>〔状態A-〕チャンピオンズフェスティバル(2018/未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr"/>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U568" t="n">
+        <v>248000</v>
+      </c>
+      <c r="V568" t="n">
+        <v>198400</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本闘エネルギー(SVデザイン)
+SV1S]</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr"/>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U569" t="n">
+        <v>3080</v>
+      </c>
+      <c r="V569" t="n">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>〔状態B〕ミライドンex
+SV1V]</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U570" t="n">
+        <v>3780</v>
+      </c>
+      <c r="V570" t="n">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>〔状態B〕オドリドリ
+S12a]</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U571" t="n">
+        <v>280</v>
+      </c>
+      <c r="V571" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ヒバニー
+S-P]</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U572" t="n">
+        <v>1090</v>
+      </c>
+      <c r="V572" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本炎エネルギー(チャンピオンズリーグ2023)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U573" t="n">
+        <v>450</v>
+      </c>
+      <c r="V573" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>〔状態B〕ジャローダVSTAR
+S11a]</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr"/>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U574" t="n">
+        <v>230</v>
+      </c>
+      <c r="V574" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>〔状態A-〕フシギダネ
+その他]</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U575" t="n">
+        <v>7980</v>
+      </c>
+      <c r="V575" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>〔状態B〕デオキシス
+その他]</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="U576" t="n">
+        <v>44800</v>
+      </c>
+      <c r="V576" t="n">
+        <v>35840</v>
       </c>
     </row>
   </sheetData>

--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -2769,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X576"/>
+  <dimension ref="A1:AB647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2883,6 +2883,26 @@
           <t>2026-02-26_diff</t>
         </is>
       </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>2026-02-27_price</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>2026-02-27_buy</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>2026-02-27_ratio</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>2026-02-27_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12842,7 +12862,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C425" t="inlineStr"/>
       <c r="D425" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12867,7 +12886,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr"/>
       <c r="D426" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12892,7 +12910,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C427" t="inlineStr"/>
       <c r="D427" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12917,7 +12934,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr"/>
       <c r="D428" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12942,7 +12958,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr"/>
       <c r="D429" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12967,7 +12982,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr"/>
       <c r="D430" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -12992,7 +13006,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr"/>
       <c r="D431" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13017,7 +13030,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr"/>
       <c r="D432" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13042,7 +13054,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13067,7 +13078,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13092,7 +13102,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr"/>
       <c r="D435" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13117,7 +13126,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13142,7 +13150,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr"/>
       <c r="D437" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13167,7 +13174,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr"/>
       <c r="D438" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13192,7 +13198,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13217,7 +13222,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr"/>
       <c r="D440" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13242,7 +13246,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr"/>
       <c r="D441" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13267,7 +13270,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13292,7 +13294,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13317,7 +13318,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr"/>
       <c r="D444" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13342,7 +13342,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr"/>
       <c r="D445" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13367,7 +13366,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C446" t="inlineStr"/>
       <c r="D446" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13392,7 +13390,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13417,7 +13414,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13442,7 +13438,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13467,7 +13462,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13492,7 +13486,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13517,7 +13510,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13542,7 +13534,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr"/>
       <c r="D453" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13567,7 +13558,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13592,7 +13582,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13617,7 +13606,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13642,7 +13630,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13667,7 +13654,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13692,7 +13678,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr"/>
       <c r="D459" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13717,7 +13702,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13742,7 +13726,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13767,7 +13750,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13792,7 +13774,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13817,7 +13798,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13842,7 +13822,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13867,7 +13846,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13892,7 +13870,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13917,7 +13894,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13942,7 +13918,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13967,7 +13942,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -13992,7 +13966,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14017,7 +13990,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14042,7 +14014,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14067,7 +14038,6 @@
           <t>CSR</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14092,7 +14062,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14117,7 +14086,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14142,7 +14110,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14167,7 +14134,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C478" t="inlineStr"/>
       <c r="D478" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14192,7 +14158,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14217,7 +14182,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14242,7 +14206,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C481" t="inlineStr"/>
       <c r="D481" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14267,7 +14230,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C482" t="inlineStr"/>
       <c r="D482" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14292,7 +14254,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr"/>
       <c r="D483" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14317,7 +14278,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14342,7 +14302,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14367,7 +14326,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14392,7 +14350,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C487" t="inlineStr"/>
       <c r="D487" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14417,7 +14374,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14442,7 +14398,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14467,7 +14422,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14492,7 +14446,6 @@
           <t>MA</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14516,7 +14469,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr"/>
       <c r="D492" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14540,7 +14492,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr"/>
       <c r="D493" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14564,7 +14515,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr"/>
       <c r="D494" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14588,7 +14538,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14612,7 +14561,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14636,7 +14584,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14660,7 +14607,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14685,7 +14631,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14709,7 +14654,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14733,7 +14677,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14757,7 +14700,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C502" t="inlineStr"/>
       <c r="D502" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14781,7 +14723,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C503" t="inlineStr"/>
       <c r="D503" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14805,7 +14746,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C504" t="inlineStr"/>
       <c r="D504" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14829,7 +14769,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C505" t="inlineStr"/>
       <c r="D505" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14854,7 +14793,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C506" t="inlineStr"/>
       <c r="D506" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14879,7 +14817,6 @@
           <t>MUR</t>
         </is>
       </c>
-      <c r="C507" t="inlineStr"/>
       <c r="D507" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14903,7 +14840,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C508" t="inlineStr"/>
       <c r="D508" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14927,7 +14863,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C509" t="inlineStr"/>
       <c r="D509" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14951,7 +14886,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C510" t="inlineStr"/>
       <c r="D510" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14975,7 +14909,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C511" t="inlineStr"/>
       <c r="D511" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -14999,7 +14932,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C512" t="inlineStr"/>
       <c r="D512" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15023,7 +14955,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C513" t="inlineStr"/>
       <c r="D513" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15047,7 +14978,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C514" t="inlineStr"/>
       <c r="D514" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15071,7 +15001,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C515" t="inlineStr"/>
       <c r="D515" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15095,7 +15024,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C516" t="inlineStr"/>
       <c r="D516" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15119,7 +15047,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C517" t="inlineStr"/>
       <c r="D517" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15143,7 +15070,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C518" t="inlineStr"/>
       <c r="D518" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15167,7 +15093,6 @@
           <t>RRR</t>
         </is>
       </c>
-      <c r="C519" t="inlineStr"/>
       <c r="D519" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15191,7 +15116,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C520" t="inlineStr"/>
       <c r="D520" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15215,7 +15139,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C521" t="inlineStr"/>
       <c r="D521" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15239,7 +15162,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15263,7 +15185,6 @@
           <t>TR</t>
         </is>
       </c>
-      <c r="C523" t="inlineStr"/>
       <c r="D523" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15287,7 +15208,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15311,7 +15231,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15335,7 +15254,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15360,7 +15278,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15384,7 +15301,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C528" t="inlineStr"/>
       <c r="D528" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15408,7 +15324,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C529" t="inlineStr"/>
       <c r="D529" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15432,7 +15347,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C530" t="inlineStr"/>
       <c r="D530" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15456,7 +15370,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C531" t="inlineStr"/>
       <c r="D531" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15480,7 +15393,6 @@
           <t>TR</t>
         </is>
       </c>
-      <c r="C532" t="inlineStr"/>
       <c r="D532" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15504,7 +15416,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C533" t="inlineStr"/>
       <c r="D533" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15528,7 +15439,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -15553,7 +15463,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C535" t="inlineStr"/>
       <c r="D535" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15578,7 +15487,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C536" t="inlineStr"/>
       <c r="D536" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15603,7 +15511,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15628,7 +15535,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15653,7 +15559,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15678,7 +15583,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C540" t="inlineStr"/>
       <c r="D540" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15703,7 +15607,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C541" t="inlineStr"/>
       <c r="D541" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15728,7 +15631,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15753,7 +15655,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C543" t="inlineStr"/>
       <c r="D543" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15778,7 +15679,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15803,7 +15703,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15828,7 +15727,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15853,7 +15751,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C547" t="inlineStr"/>
       <c r="D547" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15878,7 +15775,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C548" t="inlineStr"/>
       <c r="D548" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15903,7 +15799,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C549" t="inlineStr"/>
       <c r="D549" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15928,7 +15823,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C550" t="inlineStr"/>
       <c r="D550" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15953,7 +15847,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C551" t="inlineStr"/>
       <c r="D551" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -15978,7 +15871,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C552" t="inlineStr"/>
       <c r="D552" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16003,7 +15895,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C553" t="inlineStr"/>
       <c r="D553" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16028,7 +15919,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C554" t="inlineStr"/>
       <c r="D554" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16053,7 +15943,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16078,7 +15967,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16103,7 +15991,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C557" t="inlineStr"/>
       <c r="D557" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16128,7 +16015,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16153,7 +16039,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C559" t="inlineStr"/>
       <c r="D559" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16178,7 +16063,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16203,7 +16087,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C561" t="inlineStr"/>
       <c r="D561" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16228,7 +16111,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C562" t="inlineStr"/>
       <c r="D562" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16253,7 +16135,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C563" t="inlineStr"/>
       <c r="D563" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16278,7 +16159,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16303,7 +16183,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C565" t="inlineStr"/>
       <c r="D565" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16328,7 +16207,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16353,7 +16231,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16378,7 +16255,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16403,7 +16279,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16428,7 +16303,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C570" t="inlineStr"/>
       <c r="D570" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16453,7 +16327,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16478,7 +16351,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16503,7 +16375,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C573" t="inlineStr"/>
       <c r="D573" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16528,7 +16399,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C574" t="inlineStr"/>
       <c r="D574" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16553,7 +16423,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C575" t="inlineStr"/>
       <c r="D575" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16578,7 +16447,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C576" t="inlineStr"/>
       <c r="D576" t="inlineStr">
         <is>
           <t>zaiko_nashi</t>
@@ -16589,6 +16457,1770 @@
       </c>
       <c r="V576" t="n">
         <v>35840</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本水エネルギー(チャンピオンズリーグ2026)
+M-P]</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y577" t="n">
+        <v>580</v>
+      </c>
+      <c r="Z577" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ワンパチ
+M2]</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y578" t="n">
+        <v>480</v>
+      </c>
+      <c r="Z578" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>〔状態B〕アバゴーラ
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y579" t="n">
+        <v>320</v>
+      </c>
+      <c r="Z579" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>〔状態B〕バオッキー
+SV11W]</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y580" t="n">
+        <v>420</v>
+      </c>
+      <c r="Z580" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>〔状態A-〕コダック
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y581" t="n">
+        <v>580</v>
+      </c>
+      <c r="Z581" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>〔状態B〕ロケット団のミュウツーex
+SV10]</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y582" t="n">
+        <v>5480</v>
+      </c>
+      <c r="Z582" t="n">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>〔状態C〕セグレイブ
+SV2P]</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y583" t="n">
+        <v>420</v>
+      </c>
+      <c r="Z583" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>〔状態B〕レックウザGX
+sm12a]</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr"/>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y584" t="n">
+        <v>390</v>
+      </c>
+      <c r="Z584" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>〔状態B〕リーリエのアブリボン
+SV9]</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr"/>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y585" t="n">
+        <v>790</v>
+      </c>
+      <c r="Z585" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本雷エネルギー(BWデザイン/ミラー)
+その他]</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y586" t="n">
+        <v>780</v>
+      </c>
+      <c r="Z586" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>〔状態A-〕エアームド
+SV7a]</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y587" t="n">
+        <v>480</v>
+      </c>
+      <c r="Z587" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ゼラオラ
+SV7]</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y588" t="n">
+        <v>330</v>
+      </c>
+      <c r="Z588" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>〔状態B〕レントラーex
+SV6]</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr"/>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y589" t="n">
+        <v>380</v>
+      </c>
+      <c r="Z589" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>〔状態C〕ホウオウEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y590" t="n">
+        <v>580</v>
+      </c>
+      <c r="Z590" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>〔状態A-〕チラーミィ
+SV5K]</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y591" t="n">
+        <v>630</v>
+      </c>
+      <c r="Z591" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>〔状態B〕フォッコ(R仕様)
+XY]</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y592" t="n">
+        <v>390</v>
+      </c>
+      <c r="Z592" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ネモ
+SV4a]</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y593" t="n">
+        <v>380</v>
+      </c>
+      <c r="Z593" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>〔状態A-〕グソクムシャex
+SV4K]</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y594" t="n">
+        <v>1680</v>
+      </c>
+      <c r="Z594" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>〔状態C〕さぎょういん
+S12]</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr"/>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y595" t="n">
+        <v>220</v>
+      </c>
+      <c r="Z595" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>〔状態A-〕コオリッポex
+SV3]</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y596" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z596" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ゴローニャex
+SV2a]</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y597" t="n">
+        <v>580</v>
+      </c>
+      <c r="Z597" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カビゴン
+SV2a]</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr"/>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y598" t="n">
+        <v>1890</v>
+      </c>
+      <c r="Z598" t="n">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カイリューV
+S10b]</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y599" t="n">
+        <v>230</v>
+      </c>
+      <c r="Z599" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メルメタルVMAX
+S10b]</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y600" t="n">
+        <v>390</v>
+      </c>
+      <c r="Z600" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヤレユータンV
+S10P]</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y601" t="n">
+        <v>280</v>
+      </c>
+      <c r="Z601" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヘラクロス
+SV2D]</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y602" t="n">
+        <v>320</v>
+      </c>
+      <c r="Z602" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ウェーニバルex
+SV1a]</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y603" t="n">
+        <v>380</v>
+      </c>
+      <c r="Z603" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>〔状態A-〕バクガメスGX
+sm2]</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y604" t="n">
+        <v>1880</v>
+      </c>
+      <c r="Z604" t="n">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>〔状態A-〕タマンチュラ
+SV1V]</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr"/>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y605" t="n">
+        <v>380</v>
+      </c>
+      <c r="Z605" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ラビフット
+s4a]</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr"/>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y606" t="n">
+        <v>350</v>
+      </c>
+      <c r="Z606" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ジュナイパー
+その他]</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y607" t="n">
+        <v>480</v>
+      </c>
+      <c r="Z607" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ちからのハチマキ
+XY]</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y608" t="n">
+        <v>1330</v>
+      </c>
+      <c r="Z608" t="n">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>〔状態B〕いたずら好きのピチュー(未開封)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y609" t="n">
+        <v>2580</v>
+      </c>
+      <c r="Z609" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>〔状態B〕サンダース
+その他]</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y610" t="n">
+        <v>15800</v>
+      </c>
+      <c r="Z610" t="n">
+        <v>12640</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>〔状態B〕カビゴン
+S10a]</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y611" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Z611" t="n">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>〔状態A-〕クララ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y612" t="n">
+        <v>530</v>
+      </c>
+      <c r="Z612" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カメックス＆ポッチャマGX
+sm11a]</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr"/>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y613" t="n">
+        <v>4290</v>
+      </c>
+      <c r="Z613" t="n">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ツボツボGX
+sm8]</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr"/>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y614" t="n">
+        <v>2780</v>
+      </c>
+      <c r="Z614" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ズガドーンGX
+sm8]</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr"/>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y615" t="n">
+        <v>580</v>
+      </c>
+      <c r="Z615" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本超エネルギー(バトルカーニバル)
+その他]</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y616" t="n">
+        <v>2080</v>
+      </c>
+      <c r="Z616" t="n">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カウンターゲイン
+sm7]</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y617" t="n">
+        <v>1690</v>
+      </c>
+      <c r="Z617" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ネクロズマGX
+その他]</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y618" t="n">
+        <v>2180</v>
+      </c>
+      <c r="Z618" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ブラッキーGX
+sm8b]</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y619" t="n">
+        <v>74800</v>
+      </c>
+      <c r="Z619" t="n">
+        <v>59840</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>〔状態A-〕イシヘンジンV
+s1]</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr"/>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y620" t="n">
+        <v>380</v>
+      </c>
+      <c r="Z620" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>〔状態B〕ハマナのバックアップ
+S9]</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr"/>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y621" t="n">
+        <v>320</v>
+      </c>
+      <c r="Z621" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>〔状態B〕エーフィV(SA)
+S6a]</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr"/>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y622" t="n">
+        <v>15800</v>
+      </c>
+      <c r="Z622" t="n">
+        <v>12640</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>〔状態B〕改造ハンマー
+その他]</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y623" t="n">
+        <v>4480</v>
+      </c>
+      <c r="Z623" t="n">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>〔状態B〕ドクロッグEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y624" t="n">
+        <v>2490</v>
+      </c>
+      <c r="Z624" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>〔状態B〕エアームドEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y625" t="n">
+        <v>3490</v>
+      </c>
+      <c r="Z625" t="n">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>〔状態B〕エンペルトV(SA)
+S5R]</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y626" t="n">
+        <v>8980</v>
+      </c>
+      <c r="Z626" t="n">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>〔状態B〕ツンデツンデGX
+sm8b]</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y627" t="n">
+        <v>290</v>
+      </c>
+      <c r="Z627" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>〔状態C〕溶接工
+sm10]</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr"/>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y628" t="n">
+        <v>1080</v>
+      </c>
+      <c r="Z628" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本草エネルギー(チャンピオンズリーグ2020)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y629" t="n">
+        <v>480</v>
+      </c>
+      <c r="Z629" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>〔状態B〕ピカチュウ
+その他]</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y630" t="n">
+        <v>2980</v>
+      </c>
+      <c r="Z630" t="n">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>〔状態B〕鍛冶屋
+XY]</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y631" t="n">
+        <v>21800</v>
+      </c>
+      <c r="Z631" t="n">
+        <v>17440</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>〔状態B〕アセロラ
+sm2]</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y632" t="n">
+        <v>278000</v>
+      </c>
+      <c r="Z632" t="n">
+        <v>222400</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>〔状態B〕ガブリアス＆ギラティナGX
+sm10a]</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y633" t="n">
+        <v>3280</v>
+      </c>
+      <c r="Z633" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>〔状態B〕回収ネット
+S2]</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y634" t="n">
+        <v>880</v>
+      </c>
+      <c r="Z634" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>〔状態B〕カナリィ
+M2a]</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y635" t="n">
+        <v>1880</v>
+      </c>
+      <c r="Z635" t="n">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>ザルードV</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y636" t="n">
+        <v>480</v>
+      </c>
+      <c r="Z636" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>〔状態B〕メガバクーダex
+M1L]</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr"/>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y637" t="n">
+        <v>320</v>
+      </c>
+      <c r="Z637" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>ヒトカゲ</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y638" t="n">
+        <v>680</v>
+      </c>
+      <c r="Z638" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>ウネルミナモex</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y639" t="n">
+        <v>1080</v>
+      </c>
+      <c r="Z639" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>クワッス</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y640" t="n">
+        <v>580</v>
+      </c>
+      <c r="Z640" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>ジメレオン</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y641" t="n">
+        <v>380</v>
+      </c>
+      <c r="Z641" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>アシレーヌ</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y642" t="n">
+        <v>2180</v>
+      </c>
+      <c r="Z642" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>カプ・レヒレGX</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y643" t="n">
+        <v>7980</v>
+      </c>
+      <c r="Z643" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>バンギラスex</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y644" t="n">
+        <v>680</v>
+      </c>
+      <c r="Z644" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>カプ・コケコGX</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y645" t="n">
+        <v>480</v>
+      </c>
+      <c r="Z645" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>エーフィex</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y646" t="n">
+        <v>380</v>
+      </c>
+      <c r="Z646" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>フワライド</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="Y647" t="n">
+        <v>280</v>
+      </c>
+      <c r="Z647" t="n">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -2769,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB647"/>
+  <dimension ref="A1:AF718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2903,6 +2903,26 @@
           <t>2026-02-27_diff</t>
         </is>
       </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>2026-02-28_price</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>2026-02-28_buy</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>2026-02-28_ratio</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>2026-02-28_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16471,7 +16491,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C577" t="inlineStr"/>
       <c r="D577" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16496,7 +16515,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C578" t="inlineStr"/>
       <c r="D578" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16521,7 +16539,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C579" t="inlineStr"/>
       <c r="D579" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16546,7 +16563,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C580" t="inlineStr"/>
       <c r="D580" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16571,7 +16587,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C581" t="inlineStr"/>
       <c r="D581" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16596,7 +16611,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C582" t="inlineStr"/>
       <c r="D582" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16621,7 +16635,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C583" t="inlineStr"/>
       <c r="D583" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16646,7 +16659,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C584" t="inlineStr"/>
       <c r="D584" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16671,7 +16683,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16696,7 +16707,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C586" t="inlineStr"/>
       <c r="D586" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16721,7 +16731,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C587" t="inlineStr"/>
       <c r="D587" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16746,7 +16755,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C588" t="inlineStr"/>
       <c r="D588" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16771,7 +16779,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16796,7 +16803,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16821,7 +16827,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C591" t="inlineStr"/>
       <c r="D591" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16846,7 +16851,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C592" t="inlineStr"/>
       <c r="D592" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16871,7 +16875,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C593" t="inlineStr"/>
       <c r="D593" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16896,7 +16899,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C594" t="inlineStr"/>
       <c r="D594" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16921,7 +16923,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C595" t="inlineStr"/>
       <c r="D595" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16946,7 +16947,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C596" t="inlineStr"/>
       <c r="D596" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16971,7 +16971,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C597" t="inlineStr"/>
       <c r="D597" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -16996,7 +16995,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C598" t="inlineStr"/>
       <c r="D598" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17021,7 +17019,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C599" t="inlineStr"/>
       <c r="D599" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17046,7 +17043,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C600" t="inlineStr"/>
       <c r="D600" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17071,7 +17067,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
       <c r="D601" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17096,7 +17091,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C602" t="inlineStr"/>
       <c r="D602" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17121,7 +17115,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C603" t="inlineStr"/>
       <c r="D603" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17146,7 +17139,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17171,7 +17163,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C605" t="inlineStr"/>
       <c r="D605" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17196,7 +17187,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C606" t="inlineStr"/>
       <c r="D606" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17221,7 +17211,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17246,7 +17235,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C608" t="inlineStr"/>
       <c r="D608" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17271,7 +17259,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C609" t="inlineStr"/>
       <c r="D609" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17296,7 +17283,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C610" t="inlineStr"/>
       <c r="D610" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17321,7 +17307,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C611" t="inlineStr"/>
       <c r="D611" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17346,7 +17331,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C612" t="inlineStr"/>
       <c r="D612" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17371,7 +17355,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr"/>
       <c r="D613" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17396,7 +17379,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17421,7 +17403,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17446,7 +17427,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17471,7 +17451,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C617" t="inlineStr"/>
       <c r="D617" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17496,7 +17475,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C618" t="inlineStr"/>
       <c r="D618" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17521,7 +17499,6 @@
           <t>SSR</t>
         </is>
       </c>
-      <c r="C619" t="inlineStr"/>
       <c r="D619" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17546,7 +17523,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C620" t="inlineStr"/>
       <c r="D620" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17571,7 +17547,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C621" t="inlineStr"/>
       <c r="D621" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17596,7 +17571,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C622" t="inlineStr"/>
       <c r="D622" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17621,7 +17595,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17646,7 +17619,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17671,7 +17643,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17696,7 +17667,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17721,7 +17691,6 @@
           <t>SSR</t>
         </is>
       </c>
-      <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17746,7 +17715,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17771,7 +17739,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C629" t="inlineStr"/>
       <c r="D629" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17796,7 +17763,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17821,7 +17787,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17846,7 +17811,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C632" t="inlineStr"/>
       <c r="D632" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17871,7 +17835,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17896,7 +17859,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C634" t="inlineStr"/>
       <c r="D634" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17921,7 +17883,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17945,7 +17906,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17970,7 +17930,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -17994,7 +17953,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18018,7 +17976,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18042,7 +17999,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18066,7 +18022,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18090,7 +18045,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18114,7 +18068,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C643" t="inlineStr"/>
       <c r="D643" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18138,7 +18091,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18162,7 +18114,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18186,7 +18137,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C646" t="inlineStr"/>
       <c r="D646" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18210,7 +18160,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18221,6 +18170,1777 @@
       </c>
       <c r="Z647" t="n">
         <v>224</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>ミロカロスex</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC648" t="n">
+        <v>780</v>
+      </c>
+      <c r="AD648" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メガズルズキンex(※表面加工エラー)
+M2a]</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC649" t="n">
+        <v>6980</v>
+      </c>
+      <c r="AD649" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本闘エネルギー(フレンドバトル)
+M-P]</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC650" t="n">
+        <v>450</v>
+      </c>
+      <c r="AD650" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>〔状態A-〕トルネロス
+SV11W]</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC651" t="n">
+        <v>580</v>
+      </c>
+      <c r="AD651" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ツンベアー
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC652" t="n">
+        <v>530</v>
+      </c>
+      <c r="AD652" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>〔状態B〕バルジーナ
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC653" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD653" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>〔状態B〕バイバニラ
+SV11W]</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC654" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD654" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ロケット団のクロバットex
+SV10]</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC655" t="n">
+        <v>5780</v>
+      </c>
+      <c r="AD655" t="n">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>〔状態B〕カビゴンＶ
+s1]</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC656" t="n">
+        <v>390</v>
+      </c>
+      <c r="AD656" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>〔状態B〕スパイクエネルギー
+SV9]</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC657" t="n">
+        <v>420</v>
+      </c>
+      <c r="AD657" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ビブラーバ
+SV7a]</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC658" t="n">
+        <v>380</v>
+      </c>
+      <c r="AD658" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ペリッパーδ-デルタ種(明治)
+その他]</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC659" t="n">
+        <v>1190</v>
+      </c>
+      <c r="AD659" t="n">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>〔状態B〕ケロマツ(R仕様)
+XY]</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC660" t="n">
+        <v>780</v>
+      </c>
+      <c r="AD660" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>〔状態A-〕スカイフィールド
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC661" t="n">
+        <v>380</v>
+      </c>
+      <c r="AD661" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ニャビー
+SV5M]</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC662" t="n">
+        <v>830</v>
+      </c>
+      <c r="AD662" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本雷エネルギー(チャンピオンズリーグ2024)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC663" t="n">
+        <v>680</v>
+      </c>
+      <c r="AD663" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ラルトス
+SV4a]</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC664" t="n">
+        <v>380</v>
+      </c>
+      <c r="AD664" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>〔状態A-〕フォレトスex
+SV4a]</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC665" t="n">
+        <v>230</v>
+      </c>
+      <c r="AD665" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>〔状態A-〕イワパレス
+SV4K]</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC666" t="n">
+        <v>380</v>
+      </c>
+      <c r="AD666" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>〔状態B〕フーパex
+SV3a]</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC667" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD667" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>〔状態C〕ブラッキー
+S-P]</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC668" t="n">
+        <v>790</v>
+      </c>
+      <c r="AD668" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>〔状態C〕アローラキュウコン
+その他]</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC669" t="n">
+        <v>380</v>
+      </c>
+      <c r="AD669" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>〔状態C〕ともだちてちょう
+その他]</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC670" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD670" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>〔状態B〕マサキの転送
+SV2a]</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC671" t="n">
+        <v>280</v>
+      </c>
+      <c r="AD671" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ザクロ
+S10P]</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC672" t="n">
+        <v>380</v>
+      </c>
+      <c r="AD672" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>〔状態B〕頂への雪道
+S10D]</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC673" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AD673" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>〔状態B〕サワロ
+SV2D]</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC674" t="n">
+        <v>380</v>
+      </c>
+      <c r="AD674" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>〔状態A-〕コライドンex
+SV1S]</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC675" t="n">
+        <v>490</v>
+      </c>
+      <c r="AD675" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>〔状態B〕ミライドンex
+SV1V]</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC676" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD676" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>〔状態A-〕バトルサーチャー
+S-P]</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC677" t="n">
+        <v>930</v>
+      </c>
+      <c r="AD677" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ゾロアーク
+その他]</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC678" t="n">
+        <v>260</v>
+      </c>
+      <c r="AD678" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヒスイヌメルゴン
+S12a]</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC679" t="n">
+        <v>280</v>
+      </c>
+      <c r="AD679" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ラティアス
+S12a]</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC680" t="n">
+        <v>830</v>
+      </c>
+      <c r="AD680" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>〔状態A-〕レジエレキV
+S12]</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr"/>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC681" t="n">
+        <v>380</v>
+      </c>
+      <c r="AD681" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ダーテングGX
+sm7]</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr"/>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC682" t="n">
+        <v>1090</v>
+      </c>
+      <c r="AD682" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>〔状態A-〕アローラロコン
+その他]</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC683" t="n">
+        <v>930</v>
+      </c>
+      <c r="AD683" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>〔状態A-〕イーブイ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC684" t="n">
+        <v>580</v>
+      </c>
+      <c r="AD684" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>〔状態A-〕アシレーヌGX
+sm1]</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC685" t="n">
+        <v>3580</v>
+      </c>
+      <c r="AD685" t="n">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ポケモンキャッチャー
+その他]</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC686" t="n">
+        <v>31800</v>
+      </c>
+      <c r="AD686" t="n">
+        <v>25440</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>〔状態A-〕サーナイトexδ-デルタ種(25th)
+S8a-P]</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr"/>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC687" t="n">
+        <v>2780</v>
+      </c>
+      <c r="AD687" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>〔状態A-〕エーテルパラダイス保護区
+SM9a]</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr"/>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC688" t="n">
+        <v>930</v>
+      </c>
+      <c r="AD688" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>〔状態A-〕コバルオンGX
+sm8]</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC689" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD689" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本鋼エネルギー(バトルカーニバル)
+その他]</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC690" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AD690" t="n">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>〔状態C〕R団のサンダー(25th)
+S8a-P]</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC691" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD691" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>〔状態A-〕リーリエ
+sm10b]</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC692" t="n">
+        <v>1530</v>
+      </c>
+      <c r="AD692" t="n">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ネストボール
+sm10a]</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC693" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AD693" t="n">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ゲッコウガ＆ゾロアークGX(SA)
+SM9a]</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr"/>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC694" t="n">
+        <v>52800</v>
+      </c>
+      <c r="AD694" t="n">
+        <v>42240</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ルカリオ＆メルメタルGX
+SM9b]</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC695" t="n">
+        <v>4580</v>
+      </c>
+      <c r="AD695" t="n">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ガラルネギガナイトV
+s4]</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC696" t="n">
+        <v>380</v>
+      </c>
+      <c r="AD696" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>〔状態B〕イーブイ
+S8b]</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC697" t="n">
+        <v>1280</v>
+      </c>
+      <c r="AD697" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ドンカラスV
+S9]</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC698" t="n">
+        <v>480</v>
+      </c>
+      <c r="AD698" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>〔状態B〕キクコ
+S6K]</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC699" t="n">
+        <v>480</v>
+      </c>
+      <c r="AD699" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ブラッキーVMAX(SA)
+S6a]</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC700" t="n">
+        <v>468000</v>
+      </c>
+      <c r="AD700" t="n">
+        <v>374400</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>〔状態C〕コバルオン
+その他]</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC701" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AD701" t="n">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>〔状態B〕フライゴンGX
+sm12]</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC702" t="n">
+        <v>880</v>
+      </c>
+      <c r="AD702" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>〔状態B〕カナザワのピカチュウ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC703" t="n">
+        <v>11800</v>
+      </c>
+      <c r="AD703" t="n">
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>〔状態B〕エリカのおもてなし
+その他]</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC704" t="n">
+        <v>1180</v>
+      </c>
+      <c r="AD704" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>〔状態C〕カプ・コケコGX
+その他]</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC705" t="n">
+        <v>580</v>
+      </c>
+      <c r="AD705" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>〔状態C〕アローラキュウコンGX
+sm2]</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC706" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AD706" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>〔状態C〕溶接工
+sm10]</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC707" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AD707" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>〔状態B〕フーディンEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC708" t="n">
+        <v>59800</v>
+      </c>
+      <c r="AD708" t="n">
+        <v>47840</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>〔状態B〕モクロー＆アローラナッシーGX
+sm10b]</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC709" t="n">
+        <v>490</v>
+      </c>
+      <c r="AD709" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>〔状態B〕グリーンの戦略
+sm11]</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC710" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AD710" t="n">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>〔状態B〕マルマインGX
+sm6]</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC711" t="n">
+        <v>1180</v>
+      </c>
+      <c r="AD711" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>〔状態B〕ピーピーマックス
+XY]</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC712" t="n">
+        <v>1380</v>
+      </c>
+      <c r="AD712" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>〔状態B〕ミュウ(古代文字2019)
+その他]</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC713" t="n">
+        <v>44800</v>
+      </c>
+      <c r="AD713" t="n">
+        <v>35840</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>〔状態B〕コルニ
+XY]</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC714" t="n">
+        <v>74800</v>
+      </c>
+      <c r="AD714" t="n">
+        <v>59840</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>〔状態B〕メガサーナイトex
+M2a]</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC715" t="n">
+        <v>780</v>
+      </c>
+      <c r="AD715" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>シェイミVSTAR</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC716" t="n">
+        <v>1180</v>
+      </c>
+      <c r="AD716" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>フシギバナ＆ツタージャGX</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC717" t="n">
+        <v>1880</v>
+      </c>
+      <c r="AD717" t="n">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>メラルバ</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="AC718" t="n">
+        <v>680</v>
+      </c>
+      <c r="AD718" t="n">
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/card_prices.xlsx
+++ b/card_prices.xlsx
@@ -11,6 +11,7 @@
     <sheet name="2026-2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="グラフ用" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="graph" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2026-3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18183,7 +18184,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C648" t="inlineStr"/>
       <c r="D648" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18208,7 +18208,6 @@
           <t>MA</t>
         </is>
       </c>
-      <c r="C649" t="inlineStr"/>
       <c r="D649" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18233,7 +18232,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18258,7 +18256,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18283,7 +18280,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C652" t="inlineStr"/>
       <c r="D652" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18308,7 +18304,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18333,7 +18328,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C654" t="inlineStr"/>
       <c r="D654" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18358,7 +18352,6 @@
           <t>SAR</t>
         </is>
       </c>
-      <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18383,7 +18376,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C656" t="inlineStr"/>
       <c r="D656" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18408,7 +18400,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C657" t="inlineStr"/>
       <c r="D657" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18433,7 +18424,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C658" t="inlineStr"/>
       <c r="D658" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18458,7 +18448,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C659" t="inlineStr"/>
       <c r="D659" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18483,7 +18472,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C660" t="inlineStr"/>
       <c r="D660" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18508,7 +18496,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C661" t="inlineStr"/>
       <c r="D661" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18533,7 +18520,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C662" t="inlineStr"/>
       <c r="D662" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18558,7 +18544,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C663" t="inlineStr"/>
       <c r="D663" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18583,7 +18568,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="C664" t="inlineStr"/>
       <c r="D664" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18608,7 +18592,6 @@
           <t>SSR</t>
         </is>
       </c>
-      <c r="C665" t="inlineStr"/>
       <c r="D665" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18633,7 +18616,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C666" t="inlineStr"/>
       <c r="D666" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18658,7 +18640,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C667" t="inlineStr"/>
       <c r="D667" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18683,7 +18664,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C668" t="inlineStr"/>
       <c r="D668" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18708,7 +18688,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C669" t="inlineStr"/>
       <c r="D669" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18733,7 +18712,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C670" t="inlineStr"/>
       <c r="D670" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18758,7 +18736,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C671" t="inlineStr"/>
       <c r="D671" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18783,7 +18760,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C672" t="inlineStr"/>
       <c r="D672" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18808,7 +18784,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C673" t="inlineStr"/>
       <c r="D673" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18833,7 +18808,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18858,7 +18832,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18883,7 +18856,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18908,7 +18880,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18933,7 +18904,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C678" t="inlineStr"/>
       <c r="D678" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18958,7 +18928,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C679" t="inlineStr"/>
       <c r="D679" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -18983,7 +18952,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C680" t="inlineStr"/>
       <c r="D680" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19008,7 +18976,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C681" t="inlineStr"/>
       <c r="D681" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19033,7 +19000,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19058,7 +19024,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19083,7 +19048,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19108,7 +19072,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C685" t="inlineStr"/>
       <c r="D685" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19133,7 +19096,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C686" t="inlineStr"/>
       <c r="D686" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19158,7 +19120,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C687" t="inlineStr"/>
       <c r="D687" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19183,7 +19144,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C688" t="inlineStr"/>
       <c r="D688" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19208,7 +19168,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C689" t="inlineStr"/>
       <c r="D689" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19233,7 +19192,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C690" t="inlineStr"/>
       <c r="D690" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19258,7 +19216,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C691" t="inlineStr"/>
       <c r="D691" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19283,7 +19240,6 @@
           <t>TR</t>
         </is>
       </c>
-      <c r="C692" t="inlineStr"/>
       <c r="D692" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19308,7 +19264,6 @@
           <t>TR</t>
         </is>
       </c>
-      <c r="C693" t="inlineStr"/>
       <c r="D693" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19333,7 +19288,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C694" t="inlineStr"/>
       <c r="D694" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19358,7 +19312,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C695" t="inlineStr"/>
       <c r="D695" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19383,7 +19336,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C696" t="inlineStr"/>
       <c r="D696" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19408,7 +19360,6 @@
           <t>CHR</t>
         </is>
       </c>
-      <c r="C697" t="inlineStr"/>
       <c r="D697" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19433,7 +19384,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C698" t="inlineStr"/>
       <c r="D698" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19458,7 +19408,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19483,7 +19432,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C700" t="inlineStr"/>
       <c r="D700" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19508,7 +19456,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C701" t="inlineStr"/>
       <c r="D701" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19533,7 +19480,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19558,7 +19504,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19583,7 +19528,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C704" t="inlineStr"/>
       <c r="D704" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19608,7 +19552,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19633,7 +19576,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19658,7 +19600,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C707" t="inlineStr"/>
       <c r="D707" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19683,7 +19624,6 @@
           <t>UR</t>
         </is>
       </c>
-      <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19708,7 +19648,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C709" t="inlineStr"/>
       <c r="D709" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19733,7 +19672,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C710" t="inlineStr"/>
       <c r="D710" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19758,7 +19696,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19783,7 +19720,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19808,7 +19744,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19833,7 +19768,6 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19858,7 +19792,6 @@
           <t>MA</t>
         </is>
       </c>
-      <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19882,7 +19815,6 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="C716" t="inlineStr"/>
       <c r="D716" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19906,7 +19838,6 @@
           <t>RR</t>
         </is>
       </c>
-      <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -19930,7 +19861,6 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
         <is>
           <t>zaiko_ari</t>
@@ -20062,4 +19992,3752 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>card_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2026-03-01_price</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2026-03-01_buy</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2026-03-01_ratio</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2026-03-01_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ミロカロスex</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>780</v>
+      </c>
+      <c r="F2" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>カウンターゲイン</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>〔状態B〕タツベイ
+その他]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>480</v>
+      </c>
+      <c r="F4" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>〔状態A-〕オドリドリex
+M2]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5280</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>〔状態A-〕チョロネコ
+SV11W]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>630</v>
+      </c>
+      <c r="F6" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>〔状態B〕ユニラン
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1480</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>〔状態C〕基本草エネルギー(ジムチャレンジ)
+その他]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>380</v>
+      </c>
+      <c r="F8" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>〔状態C〕ネモ
+SV4a]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>480</v>
+      </c>
+      <c r="F9" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>〔状態B〕基本超エネルギー(チャンピオンズリーグ2025)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>880</v>
+      </c>
+      <c r="F10" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>〔状態B〕タタッコ
+SV7a]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>320</v>
+      </c>
+      <c r="F11" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>〔状態B〕ドダイトスLV.X
+その他]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1790</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>〔状態C〕ペリッパーδ-デルタ種(明治)
+その他]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>580</v>
+      </c>
+      <c r="F13" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>〔状態B〕ワザマシンエヴォリューション
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>280</v>
+      </c>
+      <c r="F14" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>〔状態B〕ソルガレオGX
+sm4]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>280</v>
+      </c>
+      <c r="F15" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ビワ
+SV5K]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>390</v>
+      </c>
+      <c r="F16" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ガブリアスex
+SV3a]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>990</v>
+      </c>
+      <c r="F17" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>〔状態B〕コソクムシ
+SV4K]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>320</v>
+      </c>
+      <c r="F18" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ドラピオンV(S11)
+S11]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>330</v>
+      </c>
+      <c r="F19" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>〔状態B〕オリジンパルキアVSTAR
+S10P]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F20" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>〔状態C〕メロン
+S6H]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>530</v>
+      </c>
+      <c r="F21" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ヒスイの仲間たち
+S12a]</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>930</v>
+      </c>
+      <c r="F22" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本水エネルギー(LAWSON)
+その他]</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>580</v>
+      </c>
+      <c r="F23" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>〔状態A-〕モクロー
+sm8b]</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F24" t="n">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ガオガエンGX
+sm8]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F25" t="n">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>〔状態A-〕シャワーズ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>830</v>
+      </c>
+      <c r="F26" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本草エネルギー(BREAK UR)
+その他]</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6480</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>〔状態A-〕基本闘エネルギー(ジムチャレンジ)
+その他]</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>580</v>
+      </c>
+      <c r="F28" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>〔状態A-〕シャワーズ
+S8b]</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>〔状態B〕ディアルガGX
+sm5]</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>880</v>
+      </c>
+      <c r="F30" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>〔状態A-〕フリーザーGX
+sm8b]</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4880</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>〔状態A-〕アルセウス＆ディアルガ＆パルキアGX
+sm12]</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>5280</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ハガネールEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>11800</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ゼラオラGX
+sm7]</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ラプラスVMAX
+s4a]</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>690</v>
+      </c>
+      <c r="F35" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>〔状態A-〕オクタン
+S5R]</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1230</v>
+      </c>
+      <c r="F36" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>〔状態A-〕マスタードいちげきのかた
+S8b]</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>330</v>
+      </c>
+      <c r="F37" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>〔状態B〕白銀の鏡(バトルカーニバル2013)
+その他]</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3190</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>〔状態B〕メガターボ
+XY]</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>〔状態B〕はくばバドレックスVMAX
+S8b]</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CSR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>830</v>
+      </c>
+      <c r="F40" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>〔状態B〕アスナ
+S6H]</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F41" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>〔状態B〕インテレオン
+s4a]</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>230</v>
+      </c>
+      <c r="F42" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>〔状態C〕カイオーガEX
+XY]</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>27800</v>
+      </c>
+      <c r="F43" t="n">
+        <v>22240</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>〔状態C〕ポケモン通信
+その他]</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>320</v>
+      </c>
+      <c r="F44" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>〔状態C〕ミュウツーEX(フォトンウェーブ)
+その他]</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>27800</v>
+      </c>
+      <c r="F45" t="n">
+        <v>22240</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>〔状態B〕バタフリーV
+S2a]</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>480</v>
+      </c>
+      <c r="F46" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>〔状態B〕エーフィGX
+sm1]</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>12800</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>〔状態B〕ポンチョを着たピカチュウ
+XY]</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>84800</v>
+      </c>
+      <c r="F48" t="n">
+        <v>67840</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヘビーボール(バトルカーニバル2011)
+その他]</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>12800</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>〔状態B〕イベルタルGX
+sm6]</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>280</v>
+      </c>
+      <c r="F50" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕ボタン</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>8980</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ユキノオー</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>480</v>
+      </c>
+      <c r="F52" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>カエンジシ</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>780</v>
+      </c>
+      <c r="F53" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ニャビー</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2480</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>パールル</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>580</v>
+      </c>
+      <c r="F55" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヒンバス
+SV8]</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>280</v>
+      </c>
+      <c r="F56" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>パオジアンex</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>680</v>
+      </c>
+      <c r="F57" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ウェーニバルex</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>680</v>
+      </c>
+      <c r="F58" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>アローラキュウコンGX</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>9980</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>バチュル</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>980</v>
+      </c>
+      <c r="F60" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ムウマージex</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>480</v>
+      </c>
+      <c r="F61" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ゴチミル</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>980</v>
+      </c>
+      <c r="F62" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>エーフィex</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>8480</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ミュウツーVSTAR</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>15800</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12640</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ミュウV</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>380</v>
+      </c>
+      <c r="F65" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ドラメシヤ</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>380</v>
+      </c>
+      <c r="F66" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ラティオスGX</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>5280</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>〔※状態難/PSA10鑑定済〕リザードンex</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>62800</v>
+      </c>
+      <c r="F68" t="n">
+        <v>50240</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ダイオウドウV</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>480</v>
+      </c>
+      <c r="F69" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ノココッチex</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>580</v>
+      </c>
+      <c r="F70" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕テラパゴスex</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>11800</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>カビゴン</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ノコッチ</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>580</v>
+      </c>
+      <c r="F73" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>アルセウスVSTAR</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2280</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ドードリオV(RR仕様)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>380</v>
+      </c>
+      <c r="F75" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>なかよしポフィン</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>220</v>
+      </c>
+      <c r="F76" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ネストボール</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>380</v>
+      </c>
+      <c r="F77" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>基本炎エネルギー(SVデザイン/CL2023)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>680</v>
+      </c>
+      <c r="F78" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>基本草エネルギー(ジム応援キャンペーン ミラー)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>580</v>
+      </c>
+      <c r="F79" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>〔PSA10鑑定済〕リーリエの決心</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>88800</v>
+      </c>
+      <c r="F80" t="n">
+        <v>71040</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ライム</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>480</v>
+      </c>
+      <c r="F81" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ジャッジマン</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3280</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>キクコ</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>580</v>
+      </c>
+      <c r="F83" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ダンデ</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F84" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ビート</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>280</v>
+      </c>
+      <c r="F85" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ラニュイ</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>6280</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ハラ(チャンピオンズリーグ2017)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>zaiko_ari</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>〔状態C〕ピカチュウLV.13
+DP-P]</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>7980</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>〔状態B〕マフォクシー
+XY]</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>880</v>
+      </c>
+      <c r="F89" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>〔状態C〕コイキング
+その他]</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メレシー
+XY]</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>480</v>
+      </c>
+      <c r="F91" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>〔状態C〕コバルオン
+SV11B]</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>380</v>
+      </c>
+      <c r="F92" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>〔状態B〕ニンフィア(中国語版)
+その他]</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>5980</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>〔状態C〕ポリゴンZ
+SV4M]</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>220</v>
+      </c>
+      <c r="F94" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ロケット団のニドキングex
+SV10]</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>480</v>
+      </c>
+      <c r="F95" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>〔状態C〕スグリ
+SV6]</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F96" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>〔状態C〕基本炎エネルギー(セブンイレブン)
+その他]</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>680</v>
+      </c>
+      <c r="F97" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヒビキのホウオウex
+SV9a]</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>17800</v>
+      </c>
+      <c r="F98" t="n">
+        <v>14240</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>〔状態A-〕エーフィex
+SV8a]</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>230</v>
+      </c>
+      <c r="F99" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>〔状態B〕サカキの計画(未開封)
+XY]</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>598000</v>
+      </c>
+      <c r="F100" t="n">
+        <v>478400</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ポケパークのミズゴロウ(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>4880</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>〔状態C〕サンダーex
+SV2a]</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>230</v>
+      </c>
+      <c r="F102" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>〔状態B〕エンテイ
+その他]</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>12800</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>〔状態B〕スグリ
+SV6]</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>〔状態C〕ピカチュウ(未開封/台北オープン記念)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>8480</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>〔状態C〕ミュウex
+SV2a]</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>730</v>
+      </c>
+      <c r="F106" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>〔状態C〕リーフィア(YU NAGABA)
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>3480</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ピカチュウ
+SV-P]</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>590</v>
+      </c>
+      <c r="F108" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>〔状態A-〕メルタン(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>450</v>
+      </c>
+      <c r="F109" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>〔状態A-〕まんたんのくすり
+その他]</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>21800</v>
+      </c>
+      <c r="F110" t="n">
+        <v>17440</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>〔状態C〕ピカチュウV
+SI]</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>〔状態B〕いたずら好きのピチュー
+S-P]</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1480</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>〔状態B〕サンダースVMAX(SA仕様)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>548000</v>
+      </c>
+      <c r="F113" t="n">
+        <v>438400</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>〔状態B〕ヒスイダイケンキV
+S12a]</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>880</v>
+      </c>
+      <c r="F114" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>〔状態A-〕フーパ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>260</v>
+      </c>
+      <c r="F115" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>〔状態A-〕名探偵ピカチュウ(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>14300</v>
+      </c>
+      <c r="F116" t="n">
+        <v>11440</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ポリゴンZ
+その他]</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>260</v>
+      </c>
+      <c r="F117" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>〔状態B〕まるのみされたピカチュウ
+S-P]</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>32800</v>
+      </c>
+      <c r="F118" t="n">
+        <v>26240</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ミチーナしんでん
+その他]</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>6280</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>〔状態A-〕マスターの書
+その他]</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1380000</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1104000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>〔状態A-〕リーリエ(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>72800</v>
+      </c>
+      <c r="F121" t="n">
+        <v>58240</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>〔状態C〕こくばバドレックスV
+S8b]</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CSR</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>580</v>
+      </c>
+      <c r="F122" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>〔状態B〕ゲノセクト(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1480</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>〔状態A-〕デオキシス
+その他]</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>70800</v>
+      </c>
+      <c r="F124" t="n">
+        <v>56640</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ハイパーボール
+S-P]</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>530</v>
+      </c>
+      <c r="F125" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>〔状態C〕おいわいファンファーレ(2021)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>7480</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>〔状態C〕ガラルファイヤーV
+S5a]</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>780</v>
+      </c>
+      <c r="F127" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>〔状態A-〕カメックス＆ポッチャマGX(SA)
+sm11a]</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>44800</v>
+      </c>
+      <c r="F128" t="n">
+        <v>35840</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ロケット団参上！(25th)
+S8a-P]</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>〔状態B〕オタチ
+その他]</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>2290</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ファイヤー
+その他]</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1680</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>〔状態A-〕ラプラスGX
+sm1]</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>〔状態A-〕リーフィアVSTAR(RRR仕様)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>380</v>
+      </c>
+      <c r="F133" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>〔状態A-〕はくばバドレックスV(SA)
+S6H]</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>2780</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>〔状態B〕リザードンV(SA)
+S9]</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>21800</v>
+      </c>
+      <c r="F135" t="n">
+        <v>17440</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>〔状態C〕ナエトル
+その他]</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>680</v>
+      </c>
+      <c r="F136" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>〔状態B〕ブラッキー☆(25th)
+S8a-P]</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>13800</v>
+      </c>
+      <c r="F137" t="n">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>〔状態B〕ボスごっこピカチュウ ギンガ団(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>128000</v>
+      </c>
+      <c r="F138" t="n">
+        <v>102400</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>〔状態B〕はくばバドレックスV
+S6H]</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>320</v>
+      </c>
+      <c r="F139" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>〔状態B〕ピカチュウ(未開封)
+その他]</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>8480</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>〔状態B〕オールナイトパーティ
+XY]</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>6990</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5592</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>〔状態B〕カプ・コケコV
+S5I]</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>280</v>
+      </c>
+      <c r="F142" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>〔状態B〕セキエイこうげん(頂上大激突)
+その他]</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>44800</v>
+      </c>
+      <c r="F143" t="n">
+        <v>35840</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>〔状態C〕基本水エネルギー(ジム応援キャンペーン ミラー)
+S-P]</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>220</v>
+      </c>
+      <c r="F144" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>〔状態C〕カプ・ブルルGX
+sm2]</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>〔状態C〕メガヤミラミ＆バンギラスGX(SA)
+sm11]</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>12800</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>〔状態C〕フリーザーGX
+sm8b]</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SSR</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>2480</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>〔状態C〕はじまりの扉
+その他]</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>〔状態C〕ピカチュウ
+その他]</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>13800</v>
+      </c>
+      <c r="F149" t="n">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>〔状態C〕アズサ
+XY]</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>zaiko_nashi</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>42800</v>
+      </c>
+      <c r="F150" t="n">
+        <v>34240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>